--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="100" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="3940" yWindow="680" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Android基础" sheetId="1" r:id="rId6"/>
     <sheet name="常见问题及解决办法" sheetId="6" r:id="rId7"/>
     <sheet name="Intent" sheetId="8" r:id="rId8"/>
-    <sheet name="多线程" sheetId="9" r:id="rId9"/>
-    <sheet name="Service" sheetId="13" r:id="rId10"/>
-    <sheet name="Broadcast Receiver" sheetId="14" r:id="rId11"/>
-    <sheet name="常见问题" sheetId="10" r:id="rId12"/>
-    <sheet name="AsyncTask Demo" sheetId="11" r:id="rId13"/>
-    <sheet name="Handler Demo" sheetId="12" r:id="rId14"/>
-    <sheet name="BroadcastReceiver_Demo" sheetId="15" r:id="rId15"/>
+    <sheet name="Service" sheetId="13" r:id="rId9"/>
+    <sheet name="Broadcast Receiver" sheetId="14" r:id="rId10"/>
+    <sheet name="Content Provider" sheetId="16" r:id="rId11"/>
+    <sheet name="多线程" sheetId="9" r:id="rId12"/>
+    <sheet name="常见问题" sheetId="10" r:id="rId13"/>
+    <sheet name="AsyncTask Demo" sheetId="11" r:id="rId14"/>
+    <sheet name="Handler Demo" sheetId="12" r:id="rId15"/>
+    <sheet name="BroadcastReceiver_Demo" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="1090">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13569,10 +13570,6 @@
       </rPr>
       <t>文件(不是工程下的build.gradle文件)加入如下代码</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.使用service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -14727,10 +14724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BroadcastReceiver的使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    2.1 静态注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15129,10 +15122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    对象在任意时刻需要广播均可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">       // 发送广播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15186,10 +15175,6 @@
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不管是静态还是动态的,都是这样发送广播的,只是在intent.setAction(actionName)时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -15441,10 +15426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场景：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有两个界面分别为主界面和子界面(SubActivity)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20086,13 +20067,46 @@
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">String actionName = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"dynamic broadcast"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="14"/>
         <color rgb="FF808080"/>
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>// 设置action,广播的标识符</t>
+      <t>// 设置传递数据</t>
     </r>
   </si>
   <si>
@@ -20106,7 +20120,7 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">String actionName = </t>
+      <t xml:space="preserve">String key = </t>
     </r>
     <r>
       <rPr>
@@ -20116,7 +20130,7 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>"dynamic broadcast"</t>
+      <t>"key"</t>
     </r>
     <r>
       <rPr>
@@ -20130,6 +20144,219 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">        String value = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"666666"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        String message = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"广播已发送,请返回主界面查看结果"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Toast.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>makeText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,message,Toast.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LENGTH_SHORT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>).show();</t>
+    </r>
+  </si>
+  <si>
+    <t>Demo_BroadcastReceiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也就是说哪怕app本身未启动，该app订阅的广播在触发时也会对它起作用</t>
+  </si>
+  <si>
+    <t>动态注册广播接收器特点是当用来注册的Activity关掉后，广播也就失效了;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.启动service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当服务是started状态时，其生命周期与启动它的组件无关，并且可以在后台无限期运行，即使启动服务的组件已经被销毁.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此，服务需要在完成任务后调用stopSelf()方法停止，或者由其他组件调用stopService()方法停止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.关闭service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.1 关闭通过startService()的服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.2 关闭bindService()的服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为调用者与服务绑定在了一起，所以调用者一旦退出，服务也就自动终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静态注册无需担忧广播接收器是否被关闭，只要设备是开启状态，广播接收器也是打开着的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android组件BroadcastReceiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android组件Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android组件Content Provider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送广播的其它方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管是静态还是动态的,发送者都需要发送广播的,只是在intent.setAction(actionName)时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    对象在任意时刻需要发送广播均可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendOrderBroadcast()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendStickyBroadcast()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">        </t>
     </r>
     <r>
@@ -20140,163 +20367,92 @@
         <rFont val="宋体 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>// 设置传递数据</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">String key = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"key"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        String value = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"666666"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        String message = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"广播已发送,请返回主界面查看结果"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        Toast.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>makeText</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000080"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,message,Toast.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LENGTH_SHORT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>).show();</t>
-    </r>
-  </si>
-  <si>
-    <t>Demo_BroadcastReceiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>// 设置action,广播的标识符,接收的时候要匹配这个标识符.最好用一个外部常量类来存，以统一管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于实现应用之间的数据共享,通过Content Provider可以把程序内部数据共享出来，以供外部访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据提供者,通过ContentProvider共享数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据访问者,通过ContentResolver操作数据(增,删,改,查)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建ContentProvider的子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须实现6个抽象方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getType(Uri uri)</t>
+  </si>
+  <si>
+    <t>Uri insert(Uri uri, ContentValues values)</t>
+  </si>
+  <si>
+    <t>Cursor query(Uri uri, String[] projection, String selection, String[] selectionArgs, String sortOrder)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onCreate()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>delete(Uri uri, String selection, String[] selectionArgs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>update(Uri uri, ContentValues values, String selection, String[] selectionArgs)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -20613,6 +20769,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -20717,7 +20881,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -20873,8 +21037,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -21105,8 +21276,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="162">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -21261,6 +21436,13 @@
     <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22643,10 +22825,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H127"/>
+  <dimension ref="C2:K138"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -22654,485 +22836,445 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="D6" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="D10" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="D12" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="D17" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="E18" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="D20" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="E21" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="D23" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="E24" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
+    <row r="2" spans="3:11" ht="21">
+      <c r="G2" s="111" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="100" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="D7" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="D8" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="3"/>
+      <c r="D10" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="3"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="3"/>
+      <c r="D12" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="3"/>
+      <c r="D13" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="3"/>
+      <c r="D14" s="34" t="s">
+        <v>873</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="3"/>
+      <c r="D15" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="3"/>
+      <c r="D16" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="3"/>
+      <c r="D17" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="100" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="D21" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="D22" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="D24" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="D25" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="D26" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
       <c r="C29" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="3"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="D31" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="25" t="s">
+        <v>836</v>
+      </c>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="3"/>
-      <c r="D33" s="79" t="s">
-        <v>746</v>
-      </c>
-      <c r="E33" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="D33" s="3"/>
+      <c r="E33" s="25" t="s">
+        <v>207</v>
+      </c>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="3"/>
-      <c r="D34" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="E34" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="D34" s="3"/>
+      <c r="E34" s="25" t="s">
+        <v>837</v>
+      </c>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="3"/>
-      <c r="D35" s="34" t="s">
-        <v>748</v>
-      </c>
-      <c r="E35" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="D35" s="3"/>
+      <c r="E35" s="25" t="s">
+        <v>210</v>
+      </c>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="3"/>
-      <c r="D36" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="D36" s="3"/>
+      <c r="E36" s="25" t="s">
+        <v>838</v>
+      </c>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="3"/>
-      <c r="D37" s="34"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="1" t="s">
-        <v>755</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="3"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="3"/>
-      <c r="D40" s="79" t="s">
-        <v>746</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="3"/>
-      <c r="D41" s="30" t="s">
-        <v>749</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="3"/>
-      <c r="D42" s="34" t="s">
-        <v>750</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="3"/>
-      <c r="D43" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="3"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="3"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="3:8">
-      <c r="C47" s="3"/>
-      <c r="D47" s="79" t="s">
-        <v>746</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="3"/>
-      <c r="D48" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="3"/>
-      <c r="D49" s="34" t="s">
-        <v>752</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="3"/>
-      <c r="D50" s="34" t="s">
-        <v>753</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="3"/>
-      <c r="D51" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="3:8">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="D41" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="D42" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="D44" s="99" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="D45" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="D47" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="D48" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="D50" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
       <c r="C52" s="3"/>
-      <c r="D52" s="34"/>
+      <c r="D52" s="33" t="s">
+        <v>855</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="3:8">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="3:9">
       <c r="C53" s="3"/>
-      <c r="D53" s="34"/>
+      <c r="D53" s="30" t="s">
+        <v>856</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D54" s="34"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="3"/>
+      <c r="D54" s="34" t="s">
+        <v>857</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="3:8">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="3:9">
       <c r="C55" s="3"/>
-      <c r="D55" s="34"/>
+      <c r="D55" s="102" t="s">
+        <v>861</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="3:8">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="3:9">
       <c r="C56" s="3"/>
       <c r="D56" s="34" t="s">
-        <v>819</v>
+        <v>883</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="3:8">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="3:9">
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="34" t="s">
+        <v>858</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="3:8">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="3:9">
       <c r="C58" s="3"/>
-      <c r="D58" s="25" t="s">
-        <v>795</v>
+      <c r="D58" s="34" t="s">
+        <v>859</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="3:8">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="3:9">
       <c r="C59" s="3"/>
-      <c r="D59" s="70" t="s">
-        <v>796</v>
+      <c r="D59" s="34" t="s">
+        <v>860</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="3:8">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="3:9">
       <c r="C60" s="3"/>
-      <c r="D60" s="34" t="s">
-        <v>797</v>
-      </c>
+      <c r="D60" s="34"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="3:8">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="3:9">
       <c r="C61" s="3"/>
-      <c r="D61" s="98"/>
+      <c r="D61" s="34" t="s">
+        <v>843</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="3"/>
-      <c r="D62" s="70" t="s">
-        <v>789</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="3"/>
-      <c r="D63" s="70" t="s">
-        <v>790</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="3"/>
-      <c r="D64" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="3:7">
-      <c r="C65" s="3"/>
-      <c r="D65" s="70" t="s">
-        <v>798</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="D62" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="D64" s="1" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="3"/>
-      <c r="D66" s="34" t="s">
-        <v>799</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="3:7">
-      <c r="C67" s="3"/>
-      <c r="D67" s="35" t="s">
-        <v>800</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="3"/>
-      <c r="D68" s="34" t="s">
-        <v>801</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" s="3"/>
-      <c r="D69" s="34" t="s">
-        <v>802</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="D68" s="1" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="3"/>
-      <c r="D70" s="70" t="s">
-        <v>803</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="3:7">
-      <c r="C71" s="3"/>
-      <c r="D71" s="34" t="s">
-        <v>804</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="C70" s="100" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="72" spans="3:7">
-      <c r="C72" s="3"/>
-      <c r="D72" s="34" t="s">
-        <v>791</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="D72" s="1" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="73" spans="3:7">
       <c r="C73" s="3"/>
-      <c r="D73" s="34" t="s">
-        <v>792</v>
+      <c r="D73" s="25" t="s">
+        <v>876</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="3:7">
       <c r="C74" s="3"/>
-      <c r="D74" s="34" t="s">
-        <v>793</v>
+      <c r="D74" s="3" t="s">
+        <v>862</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="3:7">
       <c r="C75" s="3"/>
-      <c r="D75" s="98"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="3:7">
-      <c r="C76" s="3"/>
-      <c r="D76" s="34" t="s">
-        <v>805</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="77" spans="3:7">
-      <c r="C77" s="3"/>
-      <c r="D77" s="70" t="s">
-        <v>806</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="3"/>
-      <c r="D78" s="34" t="s">
-        <v>807</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="D77" s="1" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="79" spans="3:7">
       <c r="C79" s="3"/>
-      <c r="D79" s="70" t="s">
-        <v>808</v>
+      <c r="D79" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -23140,8 +23282,8 @@
     </row>
     <row r="80" spans="3:7">
       <c r="C80" s="3"/>
-      <c r="D80" s="34" t="s">
-        <v>809</v>
+      <c r="D80" s="33" t="s">
+        <v>864</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -23149,8 +23291,8 @@
     </row>
     <row r="81" spans="3:7">
       <c r="C81" s="3"/>
-      <c r="D81" s="34" t="s">
-        <v>810</v>
+      <c r="D81" s="30" t="s">
+        <v>865</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -23159,7 +23301,7 @@
     <row r="82" spans="3:7">
       <c r="C82" s="3"/>
       <c r="D82" s="34" t="s">
-        <v>811</v>
+        <v>866</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -23168,7 +23310,7 @@
     <row r="83" spans="3:7">
       <c r="C83" s="3"/>
       <c r="D83" s="34" t="s">
-        <v>812</v>
+        <v>884</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -23177,7 +23319,7 @@
     <row r="84" spans="3:7">
       <c r="C84" s="3"/>
       <c r="D84" s="34" t="s">
-        <v>794</v>
+        <v>867</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -23185,24 +23327,24 @@
     </row>
     <row r="85" spans="3:7">
       <c r="C85" s="3"/>
-      <c r="D85" s="98"/>
+      <c r="D85" s="34" t="s">
+        <v>868</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="3:7">
       <c r="C86" s="3"/>
-      <c r="D86" s="34" t="s">
-        <v>813</v>
-      </c>
+      <c r="D86" s="34"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="3:7">
       <c r="C87" s="3"/>
-      <c r="D87" s="70" t="s">
-        <v>814</v>
+      <c r="D87" s="34" t="s">
+        <v>869</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -23211,7 +23353,7 @@
     <row r="88" spans="3:7">
       <c r="C88" s="3"/>
       <c r="D88" s="34" t="s">
-        <v>815</v>
+        <v>1071</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -23220,7 +23362,7 @@
     <row r="89" spans="3:7">
       <c r="C89" s="3"/>
       <c r="D89" s="34" t="s">
-        <v>816</v>
+        <v>870</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -23229,7 +23371,7 @@
     <row r="90" spans="3:7">
       <c r="C90" s="3"/>
       <c r="D90" s="34" t="s">
-        <v>817</v>
+        <v>871</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -23237,18 +23379,14 @@
     </row>
     <row r="91" spans="3:7">
       <c r="C91" s="3"/>
-      <c r="D91" s="34" t="s">
-        <v>818</v>
-      </c>
+      <c r="D91" s="34"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="3:7">
       <c r="C92" s="3"/>
-      <c r="D92" s="34" t="s">
-        <v>792</v>
-      </c>
+      <c r="D92" s="34"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -23256,7 +23394,7 @@
     <row r="93" spans="3:7">
       <c r="C93" s="3"/>
       <c r="D93" s="34" t="s">
-        <v>794</v>
+        <v>1070</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -23272,175 +23410,264 @@
     <row r="95" spans="3:7">
       <c r="C95" s="3"/>
       <c r="D95" s="34"/>
-      <c r="E95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>1073</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="3:7">
-      <c r="C96" s="1" t="s">
-        <v>820</v>
-      </c>
+      <c r="C96" s="3"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>1074</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="3:8">
+    <row r="97" spans="3:9">
       <c r="C97" s="3"/>
       <c r="D97" s="34"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="3:8">
-      <c r="C98" s="3"/>
-      <c r="D98" s="34" t="s">
-        <v>821</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="3:8">
-      <c r="C99" s="3"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="3:8">
-      <c r="C100" s="3"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="3:8">
-      <c r="C101" s="3"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="3:8">
-      <c r="C102" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="104" spans="3:8">
-      <c r="C104" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8">
-      <c r="D106" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8">
+    <row r="99" spans="3:9">
+      <c r="C99" s="100" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9">
+      <c r="D101" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9">
+      <c r="D102" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="3:9">
+      <c r="C105" s="3"/>
+      <c r="D105" s="33" t="s">
+        <v>878</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="3:9">
+      <c r="C106" s="3"/>
+      <c r="D106" s="70" t="s">
+        <v>879</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="3:9">
+      <c r="C107" s="3"/>
+      <c r="D107" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="3:9">
       <c r="C108" s="3"/>
-      <c r="D108" s="25" t="s">
-        <v>759</v>
+      <c r="D108" s="30" t="s">
+        <v>880</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="3:8">
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="3:9">
       <c r="C109" s="3"/>
-      <c r="D109" s="25" t="s">
-        <v>207</v>
-      </c>
+      <c r="D109" s="98"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="3:8">
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="3:9">
       <c r="C110" s="3"/>
-      <c r="D110" s="25" t="s">
-        <v>825</v>
+      <c r="D110" s="34" t="s">
+        <v>268</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="3:8">
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="3:9">
       <c r="C111" s="3"/>
-      <c r="D111" s="25" t="s">
-        <v>210</v>
+      <c r="D111" s="35" t="s">
+        <v>833</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="3:8">
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="3:9">
       <c r="C112" s="3"/>
-      <c r="D112" s="25" t="s">
-        <v>760</v>
+      <c r="D112" s="34" t="s">
+        <v>872</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="3:7">
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="3:9">
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="34" t="s">
+        <v>881</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="3:7">
-      <c r="C114" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="116" spans="3:7">
-      <c r="C116" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="D118" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7">
-      <c r="D120" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7">
-      <c r="D121" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="122" spans="3:7">
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="3:9">
+      <c r="C114" s="3"/>
+      <c r="D114" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="3:9">
+      <c r="C115" s="3"/>
+      <c r="D115" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="3:9">
+      <c r="C116" s="3"/>
+      <c r="D116" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="3:9">
+      <c r="C117" s="3"/>
+      <c r="D117" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="120" spans="3:9">
+      <c r="C120" s="100" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9">
       <c r="D122" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="124" spans="3:7">
-      <c r="D124" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="127" spans="3:7">
-      <c r="C127" s="1" t="s">
-        <v>830</v>
-      </c>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9">
+      <c r="D123" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" ht="23">
+      <c r="C128" s="101" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129" s="23" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" s="23"/>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="D131" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="D132" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="D133" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="D134" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C129" location="BroadcastReceiver_Demo!A1" tooltip="Broadcast Receiver代码示例" display="查看代码"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -23453,10 +23680,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:I130"/>
+  <dimension ref="C2:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -23464,755 +23691,151 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:9">
-      <c r="C7" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="100" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="D11" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="D12" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="3"/>
-      <c r="D14" s="28" t="s">
-        <v>834</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" s="3"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="3"/>
-      <c r="D16" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="3"/>
-      <c r="D17" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="3"/>
-      <c r="D18" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9">
+    <row r="2" spans="3:11" ht="21">
+      <c r="G2" s="111" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="100" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="D18" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="3"/>
-      <c r="D19" s="34" t="s">
-        <v>878</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="3"/>
-      <c r="D20" s="34" t="s">
-        <v>89</v>
+      <c r="D20" s="28" t="s">
+        <v>1087</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" s="3"/>
-      <c r="D21" s="34" t="s">
-        <v>90</v>
+      <c r="D21" s="25" t="s">
+        <v>1084</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" s="100" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="D25" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="D26" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="D30" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="D31" s="3"/>
-      <c r="E31" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="D32" s="3"/>
-      <c r="E32" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="D33" s="3"/>
-      <c r="E33" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="3:9">
-      <c r="D34" s="3"/>
-      <c r="E34" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="D35" s="3"/>
-      <c r="E35" s="25" t="s">
-        <v>840</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="3:9">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9">
-      <c r="D40" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9">
-      <c r="D41" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9">
-      <c r="D43" s="99" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9">
-      <c r="D44" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9">
-      <c r="D46" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9">
-      <c r="D47" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9">
-      <c r="D49" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9">
-      <c r="C51" s="3"/>
-      <c r="D51" s="33" t="s">
-        <v>857</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="3:9">
-      <c r="C52" s="3"/>
-      <c r="D52" s="30" t="s">
-        <v>858</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="3:9">
-      <c r="C53" s="3"/>
-      <c r="D53" s="34" t="s">
-        <v>859</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="3:9">
-      <c r="C54" s="3"/>
-      <c r="D54" s="102" t="s">
-        <v>863</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="3:9">
-      <c r="C55" s="3"/>
-      <c r="D55" s="34" t="s">
-        <v>887</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="3:9">
-      <c r="C56" s="3"/>
-      <c r="D56" s="34" t="s">
-        <v>860</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="3:9">
-      <c r="C57" s="3"/>
-      <c r="D57" s="34" t="s">
-        <v>861</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="3:9">
-      <c r="C58" s="3"/>
-      <c r="D58" s="34" t="s">
-        <v>862</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="3:9">
-      <c r="C59" s="3"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="3:9">
-      <c r="C60" s="3"/>
-      <c r="D60" s="34" t="s">
-        <v>845</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="3:9">
-      <c r="D61" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9">
-      <c r="D63" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7">
-      <c r="D65" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7">
-      <c r="D67" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" s="100" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7">
-      <c r="D71" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7">
-      <c r="C72" s="3"/>
-      <c r="D72" s="25" t="s">
-        <v>880</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="3:7">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="3:7">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="3:7">
-      <c r="D75" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="D76" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="3"/>
-      <c r="D78" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="3:7">
-      <c r="C79" s="3"/>
-      <c r="D79" s="33" t="s">
-        <v>867</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="3"/>
-      <c r="D80" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="3:7">
-      <c r="C81" s="3"/>
-      <c r="D81" s="34" t="s">
-        <v>869</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="3:7">
-      <c r="C82" s="3"/>
-      <c r="D82" s="34" t="s">
-        <v>888</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="3:7">
-      <c r="C83" s="3"/>
-      <c r="D83" s="34" t="s">
-        <v>870</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="3:7">
-      <c r="C84" s="3"/>
-      <c r="D84" s="34" t="s">
-        <v>871</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="3:7">
-      <c r="C85" s="3"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="3:7">
-      <c r="C86" s="3"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="3:7">
-      <c r="C87" s="3"/>
-      <c r="D87" s="34" t="s">
-        <v>872</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="3:7">
-      <c r="C88" s="3"/>
-      <c r="D88" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="3:7">
-      <c r="C89" s="3"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="3:7">
-      <c r="C90" s="3"/>
-      <c r="D90" s="34" t="s">
-        <v>874</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="3:7">
-      <c r="C91" s="3"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="3"/>
-      <c r="D92" s="34" t="s">
-        <v>875</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="100" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7">
-      <c r="D96" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9">
-      <c r="D97" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9">
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="3:9">
-      <c r="C100" s="3"/>
-      <c r="D100" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="3:9">
-      <c r="C101" s="3"/>
-      <c r="D101" s="70" t="s">
-        <v>883</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="3:9">
-      <c r="C102" s="3"/>
-      <c r="D102" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="3:9">
-      <c r="C103" s="3"/>
-      <c r="D103" s="30" t="s">
-        <v>884</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="3:9">
-      <c r="C104" s="3"/>
-      <c r="D104" s="98"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="3:9">
-      <c r="C105" s="3"/>
-      <c r="D105" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="3:9">
-      <c r="C106" s="3"/>
-      <c r="D106" s="35" t="s">
-        <v>835</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="3:9">
-      <c r="C107" s="3"/>
-      <c r="D107" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="3:9">
-      <c r="C108" s="3"/>
-      <c r="D108" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="3:9">
-      <c r="C109" s="3"/>
-      <c r="D109" s="34" t="s">
-        <v>886</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="3:9">
-      <c r="C110" s="3"/>
-      <c r="D110" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="3:9">
-      <c r="C111" s="3"/>
-      <c r="D111" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="3:9">
-      <c r="C112" s="3"/>
-      <c r="D112" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="100" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4">
-      <c r="D117" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4">
-      <c r="D118" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" ht="23">
-      <c r="C123" s="101" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4">
-      <c r="D125" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4">
-      <c r="D126" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="128" spans="3:4">
-      <c r="D128" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="1" t="s">
-        <v>897</v>
-      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="3"/>
+      <c r="D22" s="25" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="3"/>
+      <c r="D23" s="28" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="3"/>
+      <c r="D24" s="28" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="3"/>
+      <c r="D25" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -24226,6 +23849,754 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:E221"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="19">
+      <c r="C13" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="D27" s="69" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" s="49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" s="28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="D36" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="42" spans="3:4" ht="20" customHeight="1">
+      <c r="D42" s="30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="D50" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="D51" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="D57" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="D59" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="D63" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="D65" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="D70" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="D72" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="D74" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="38" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="D79" s="28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="D81" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="D83" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="D85" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="D86" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="D88" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91" s="38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="D93" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="D95" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" ht="19">
+      <c r="C98" s="43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="D100" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="D102" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="D104" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" s="38" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="D108" s="25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="D109" s="70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="D110" s="70" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="D111" s="70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="D112" s="34" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="34" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="70" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="33" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="34" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="25" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="25" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="D129" s="25" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="D130" s="70" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="D131" s="34" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="D132" s="34" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="D133" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="D134" s="34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="D135" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="D140" s="25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="D141" s="25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="D143" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="D145" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="D147" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="D152" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="D153" s="28"/>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="D154" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="D155" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="D156" s="29"/>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="D157" s="25" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="D158" s="25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="D160" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163" s="38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="D165" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="D167" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4">
+      <c r="D169" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4">
+      <c r="C172" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4">
+      <c r="D174" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4">
+      <c r="D176" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5">
+      <c r="D177" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5">
+      <c r="D178" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5">
+      <c r="D180" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5">
+      <c r="D182" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5">
+      <c r="E184" s="49" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="D189" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="D191" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5">
+      <c r="D193" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5">
+      <c r="E195" s="28" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5">
+      <c r="E196" s="25" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5">
+      <c r="E197" s="25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5">
+      <c r="E198" s="25" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5">
+      <c r="E199" s="34" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5">
+      <c r="C201" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5">
+      <c r="D203" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5">
+      <c r="D204" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5">
+      <c r="D205" s="35" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5">
+      <c r="D206" s="34" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5">
+      <c r="D207" s="70" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5">
+      <c r="D208" s="34" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="34" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="34" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="34" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="34" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="34" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="34" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="34" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="34" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="34" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D27" location="AsyncTask代码示例!A1" tooltip="点击查看AsyncTask代码示例" display="AsyncTask代码示例"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -24302,7 +24673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M223"/>
   <sheetViews>
@@ -27584,7 +27955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:C230"/>
   <sheetViews>
@@ -28658,22 +29029,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P358"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="Q336" sqref="Q336"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:16" ht="19">
       <c r="G2" s="43" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="18">
       <c r="B7" s="36" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18">
@@ -28737,7 +29110,7 @@
     <row r="12" spans="2:16" s="44" customFormat="1">
       <c r="B12" s="53"/>
       <c r="C12" s="58" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -28756,7 +29129,7 @@
     <row r="13" spans="2:16" s="44" customFormat="1">
       <c r="B13" s="53"/>
       <c r="C13" s="58" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -28775,7 +29148,7 @@
     <row r="14" spans="2:16" s="44" customFormat="1">
       <c r="B14" s="53"/>
       <c r="C14" s="58" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -28794,7 +29167,7 @@
     <row r="15" spans="2:16" s="44" customFormat="1">
       <c r="B15" s="53"/>
       <c r="C15" s="58" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
@@ -28813,7 +29186,7 @@
     <row r="16" spans="2:16" s="44" customFormat="1">
       <c r="B16" s="53"/>
       <c r="C16" s="58" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -28832,7 +29205,7 @@
     <row r="17" spans="2:16" s="44" customFormat="1">
       <c r="B17" s="53"/>
       <c r="C17" s="58" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -28851,7 +29224,7 @@
     <row r="18" spans="2:16" s="44" customFormat="1">
       <c r="B18" s="53"/>
       <c r="C18" s="58" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -28870,7 +29243,7 @@
     <row r="19" spans="2:16" s="44" customFormat="1">
       <c r="B19" s="53"/>
       <c r="C19" s="58" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -28982,7 +29355,7 @@
     <row r="25" spans="2:16" s="44" customFormat="1">
       <c r="B25" s="53"/>
       <c r="C25" s="58" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -29001,7 +29374,7 @@
     <row r="26" spans="2:16" s="44" customFormat="1">
       <c r="B26" s="53"/>
       <c r="C26" s="58" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -29094,7 +29467,7 @@
     <row r="31" spans="2:16" s="44" customFormat="1">
       <c r="B31" s="53"/>
       <c r="C31" s="60" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -29151,7 +29524,7 @@
     <row r="34" spans="2:16" s="44" customFormat="1">
       <c r="B34" s="53"/>
       <c r="C34" s="58" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -29170,7 +29543,7 @@
     <row r="35" spans="2:16" s="44" customFormat="1">
       <c r="B35" s="53"/>
       <c r="C35" s="58" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -29189,7 +29562,7 @@
     <row r="36" spans="2:16" s="44" customFormat="1">
       <c r="B36" s="53"/>
       <c r="C36" s="58" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -29208,7 +29581,7 @@
     <row r="37" spans="2:16" s="44" customFormat="1">
       <c r="B37" s="53"/>
       <c r="C37" s="58" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -29227,7 +29600,7 @@
     <row r="38" spans="2:16" s="44" customFormat="1">
       <c r="B38" s="53"/>
       <c r="C38" s="58" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -29320,7 +29693,7 @@
     <row r="43" spans="2:16" s="44" customFormat="1">
       <c r="B43" s="53"/>
       <c r="C43" s="58" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -29339,7 +29712,7 @@
     <row r="44" spans="2:16" s="44" customFormat="1">
       <c r="B44" s="53"/>
       <c r="C44" s="58" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -29358,7 +29731,7 @@
     <row r="45" spans="2:16" s="44" customFormat="1">
       <c r="B45" s="53"/>
       <c r="C45" s="58" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -29377,7 +29750,7 @@
     <row r="46" spans="2:16" s="44" customFormat="1">
       <c r="B46" s="53"/>
       <c r="C46" s="58" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -29508,7 +29881,7 @@
     <row r="53" spans="2:16" s="44" customFormat="1">
       <c r="B53" s="53"/>
       <c r="C53" s="58" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
@@ -29527,7 +29900,7 @@
     <row r="54" spans="2:16" s="44" customFormat="1">
       <c r="B54" s="53"/>
       <c r="C54" s="58" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -29546,7 +29919,7 @@
     <row r="55" spans="2:16" s="44" customFormat="1">
       <c r="B55" s="53"/>
       <c r="C55" s="58" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
@@ -29565,7 +29938,7 @@
     <row r="56" spans="2:16" s="44" customFormat="1">
       <c r="B56" s="53"/>
       <c r="C56" s="58" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
@@ -29584,7 +29957,7 @@
     <row r="57" spans="2:16" s="44" customFormat="1">
       <c r="B57" s="53"/>
       <c r="C57" s="58" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
@@ -29603,7 +29976,7 @@
     <row r="58" spans="2:16" s="44" customFormat="1">
       <c r="B58" s="53"/>
       <c r="C58" s="58" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
@@ -29622,7 +29995,7 @@
     <row r="59" spans="2:16" s="44" customFormat="1">
       <c r="B59" s="53"/>
       <c r="C59" s="57" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
@@ -29676,7 +30049,7 @@
     </row>
     <row r="64" spans="2:16" ht="18">
       <c r="B64" s="36" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18">
@@ -29852,7 +30225,7 @@
     <row r="75" spans="2:16" s="44" customFormat="1">
       <c r="B75" s="53"/>
       <c r="C75" s="58" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
@@ -29909,7 +30282,7 @@
     <row r="78" spans="2:16" s="44" customFormat="1">
       <c r="B78" s="53"/>
       <c r="C78" s="58" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -29928,7 +30301,7 @@
     <row r="79" spans="2:16" s="44" customFormat="1">
       <c r="B79" s="53"/>
       <c r="C79" s="58" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
@@ -29947,7 +30320,7 @@
     <row r="80" spans="2:16" s="44" customFormat="1">
       <c r="B80" s="53"/>
       <c r="C80" s="58" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D80" s="55"/>
       <c r="E80" s="55"/>
@@ -30040,7 +30413,7 @@
     <row r="85" spans="2:16" s="44" customFormat="1">
       <c r="B85" s="53"/>
       <c r="C85" s="58" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
@@ -30059,7 +30432,7 @@
     <row r="86" spans="2:16" s="44" customFormat="1">
       <c r="B86" s="53"/>
       <c r="C86" s="58" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
@@ -30078,7 +30451,7 @@
     <row r="87" spans="2:16" s="44" customFormat="1">
       <c r="B87" s="53"/>
       <c r="C87" s="58" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
@@ -30116,7 +30489,7 @@
     <row r="89" spans="2:16" s="44" customFormat="1">
       <c r="B89" s="53"/>
       <c r="C89" s="58" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
@@ -30135,7 +30508,7 @@
     <row r="90" spans="2:16" s="44" customFormat="1">
       <c r="B90" s="53"/>
       <c r="C90" s="58" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D90" s="55"/>
       <c r="E90" s="55"/>
@@ -30228,7 +30601,7 @@
     <row r="95" spans="2:16" s="44" customFormat="1">
       <c r="B95" s="53"/>
       <c r="C95" s="58" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
@@ -30247,7 +30620,7 @@
     <row r="96" spans="2:16" s="44" customFormat="1">
       <c r="B96" s="53"/>
       <c r="C96" s="58" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
@@ -30266,7 +30639,7 @@
     <row r="97" spans="2:16" s="44" customFormat="1">
       <c r="B97" s="53"/>
       <c r="C97" s="58" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D97" s="55"/>
       <c r="E97" s="55"/>
@@ -30285,7 +30658,7 @@
     <row r="98" spans="2:16" s="44" customFormat="1">
       <c r="B98" s="53"/>
       <c r="C98" s="58" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
@@ -30304,7 +30677,7 @@
     <row r="99" spans="2:16" s="44" customFormat="1">
       <c r="B99" s="53"/>
       <c r="C99" s="58" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
@@ -30323,7 +30696,7 @@
     <row r="100" spans="2:16" s="44" customFormat="1">
       <c r="B100" s="53"/>
       <c r="C100" s="58" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
@@ -30394,7 +30767,7 @@
     </row>
     <row r="106" spans="2:16" ht="18">
       <c r="B106" s="36" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="108" spans="2:16" s="44" customFormat="1">
@@ -30436,7 +30809,7 @@
     <row r="110" spans="2:16" s="44" customFormat="1">
       <c r="B110" s="53"/>
       <c r="C110" s="57" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
@@ -30455,7 +30828,7 @@
     <row r="111" spans="2:16" s="44" customFormat="1">
       <c r="B111" s="53"/>
       <c r="C111" s="58" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>
@@ -30491,7 +30864,7 @@
     <row r="113" spans="2:16" s="44" customFormat="1">
       <c r="B113" s="53"/>
       <c r="C113" s="57" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D113" s="55"/>
       <c r="E113" s="55"/>
@@ -30510,7 +30883,7 @@
     <row r="114" spans="2:16" s="44" customFormat="1">
       <c r="B114" s="53"/>
       <c r="C114" s="60" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D114" s="55"/>
       <c r="E114" s="55"/>
@@ -30529,7 +30902,7 @@
     <row r="115" spans="2:16" s="44" customFormat="1">
       <c r="B115" s="53"/>
       <c r="C115" s="58" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
@@ -30548,7 +30921,7 @@
     <row r="116" spans="2:16" s="44" customFormat="1">
       <c r="B116" s="53"/>
       <c r="C116" s="58" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D116" s="55"/>
       <c r="E116" s="55"/>
@@ -30567,7 +30940,7 @@
     <row r="117" spans="2:16" s="44" customFormat="1">
       <c r="B117" s="53"/>
       <c r="C117" s="58" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D117" s="55"/>
       <c r="E117" s="55"/>
@@ -30586,7 +30959,7 @@
     <row r="118" spans="2:16" s="44" customFormat="1">
       <c r="B118" s="53"/>
       <c r="C118" s="58" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D118" s="55"/>
       <c r="E118" s="55"/>
@@ -30605,7 +30978,7 @@
     <row r="119" spans="2:16" s="44" customFormat="1">
       <c r="B119" s="53"/>
       <c r="C119" s="57" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
@@ -30624,7 +30997,7 @@
     <row r="120" spans="2:16" s="44" customFormat="1">
       <c r="B120" s="53"/>
       <c r="C120" s="57" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D120" s="55"/>
       <c r="E120" s="55"/>
@@ -30643,7 +31016,7 @@
     <row r="121" spans="2:16" s="44" customFormat="1">
       <c r="B121" s="53"/>
       <c r="C121" s="57" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D121" s="55"/>
       <c r="E121" s="55"/>
@@ -30679,7 +31052,7 @@
     <row r="123" spans="2:16" s="44" customFormat="1">
       <c r="B123" s="53"/>
       <c r="C123" s="57" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D123" s="55"/>
       <c r="E123" s="55"/>
@@ -30698,7 +31071,7 @@
     <row r="124" spans="2:16" s="44" customFormat="1">
       <c r="B124" s="53"/>
       <c r="C124" s="57" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D124" s="55"/>
       <c r="E124" s="55"/>
@@ -30717,7 +31090,7 @@
     <row r="125" spans="2:16" s="44" customFormat="1">
       <c r="B125" s="53"/>
       <c r="C125" s="57" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D125" s="55"/>
       <c r="E125" s="55"/>
@@ -30753,7 +31126,7 @@
     <row r="127" spans="2:16" s="44" customFormat="1">
       <c r="B127" s="53"/>
       <c r="C127" s="57" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D127" s="55"/>
       <c r="E127" s="55"/>
@@ -30772,7 +31145,7 @@
     <row r="128" spans="2:16" s="44" customFormat="1">
       <c r="B128" s="53"/>
       <c r="C128" s="67" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D128" s="55"/>
       <c r="E128" s="55"/>
@@ -30791,7 +31164,7 @@
     <row r="129" spans="2:16" s="44" customFormat="1">
       <c r="B129" s="53"/>
       <c r="C129" s="57" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D129" s="55"/>
       <c r="E129" s="55"/>
@@ -30810,7 +31183,7 @@
     <row r="130" spans="2:16" s="44" customFormat="1">
       <c r="B130" s="53"/>
       <c r="C130" s="57" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D130" s="55"/>
       <c r="E130" s="55"/>
@@ -30829,7 +31202,7 @@
     <row r="131" spans="2:16" s="44" customFormat="1">
       <c r="B131" s="53"/>
       <c r="C131" s="57" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D131" s="55"/>
       <c r="E131" s="55"/>
@@ -30848,7 +31221,7 @@
     <row r="132" spans="2:16" s="44" customFormat="1">
       <c r="B132" s="53"/>
       <c r="C132" s="57" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D132" s="55"/>
       <c r="E132" s="55"/>
@@ -30867,7 +31240,7 @@
     <row r="133" spans="2:16" s="44" customFormat="1">
       <c r="B133" s="53"/>
       <c r="C133" s="57" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D133" s="55"/>
       <c r="E133" s="55"/>
@@ -30903,7 +31276,7 @@
     <row r="135" spans="2:16" s="44" customFormat="1">
       <c r="B135" s="53"/>
       <c r="C135" s="57" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D135" s="55"/>
       <c r="E135" s="55"/>
@@ -30922,7 +31295,7 @@
     <row r="136" spans="2:16" s="44" customFormat="1">
       <c r="B136" s="53"/>
       <c r="C136" s="67" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D136" s="55"/>
       <c r="E136" s="55"/>
@@ -30941,7 +31314,7 @@
     <row r="137" spans="2:16" s="44" customFormat="1">
       <c r="B137" s="53"/>
       <c r="C137" s="57" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D137" s="55"/>
       <c r="E137" s="55"/>
@@ -30960,7 +31333,7 @@
     <row r="138" spans="2:16" s="44" customFormat="1">
       <c r="B138" s="53"/>
       <c r="C138" s="57" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D138" s="55"/>
       <c r="E138" s="55"/>
@@ -30979,7 +31352,7 @@
     <row r="139" spans="2:16" s="44" customFormat="1">
       <c r="B139" s="53"/>
       <c r="C139" s="57" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D139" s="55"/>
       <c r="E139" s="55"/>
@@ -30998,7 +31371,7 @@
     <row r="140" spans="2:16" s="44" customFormat="1">
       <c r="B140" s="53"/>
       <c r="C140" s="57" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="D140" s="55"/>
       <c r="E140" s="55"/>
@@ -31034,7 +31407,7 @@
     <row r="142" spans="2:16" s="44" customFormat="1">
       <c r="B142" s="53"/>
       <c r="C142" s="57" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D142" s="55"/>
       <c r="E142" s="55"/>
@@ -31070,7 +31443,7 @@
     <row r="144" spans="2:16" s="44" customFormat="1">
       <c r="B144" s="53"/>
       <c r="C144" s="57" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D144" s="55"/>
       <c r="E144" s="55"/>
@@ -31122,7 +31495,7 @@
     </row>
     <row r="148" spans="2:16" ht="18">
       <c r="B148" s="36" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="149" spans="2:16" ht="18">
@@ -31148,7 +31521,7 @@
     <row r="151" spans="2:16" s="44" customFormat="1">
       <c r="B151" s="53"/>
       <c r="C151" s="64" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D151" s="55"/>
       <c r="E151" s="55"/>
@@ -31184,7 +31557,7 @@
     <row r="153" spans="2:16" s="44" customFormat="1">
       <c r="B153" s="53"/>
       <c r="C153" s="64" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D153" s="55"/>
       <c r="E153" s="55"/>
@@ -31203,7 +31576,7 @@
     <row r="154" spans="2:16" s="44" customFormat="1">
       <c r="B154" s="53"/>
       <c r="C154" s="64" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D154" s="55"/>
       <c r="E154" s="55"/>
@@ -31222,7 +31595,7 @@
     <row r="155" spans="2:16" s="44" customFormat="1">
       <c r="B155" s="53"/>
       <c r="C155" s="64" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D155" s="55"/>
       <c r="E155" s="55"/>
@@ -31260,7 +31633,7 @@
     <row r="157" spans="2:16" s="44" customFormat="1">
       <c r="B157" s="53"/>
       <c r="C157" s="64" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D157" s="55"/>
       <c r="E157" s="55"/>
@@ -31315,7 +31688,7 @@
     <row r="160" spans="2:16" s="44" customFormat="1">
       <c r="B160" s="53"/>
       <c r="C160" s="67" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D160" s="55"/>
       <c r="E160" s="55"/>
@@ -31353,7 +31726,7 @@
     <row r="162" spans="2:16" s="44" customFormat="1">
       <c r="B162" s="53"/>
       <c r="C162" s="60" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D162" s="55"/>
       <c r="E162" s="55"/>
@@ -31389,7 +31762,7 @@
     <row r="164" spans="2:16" s="44" customFormat="1">
       <c r="B164" s="53"/>
       <c r="C164" s="57" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="D164" s="55"/>
       <c r="E164" s="55"/>
@@ -31444,7 +31817,7 @@
     <row r="167" spans="2:16" s="44" customFormat="1">
       <c r="B167" s="53"/>
       <c r="C167" s="68" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D167" s="55"/>
       <c r="E167" s="55"/>
@@ -31463,7 +31836,7 @@
     <row r="168" spans="2:16" s="44" customFormat="1">
       <c r="B168" s="53"/>
       <c r="C168" s="57" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D168" s="55"/>
       <c r="E168" s="55"/>
@@ -31482,7 +31855,7 @@
     <row r="169" spans="2:16" s="44" customFormat="1">
       <c r="B169" s="53"/>
       <c r="C169" s="57" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D169" s="55"/>
       <c r="E169" s="55"/>
@@ -31501,7 +31874,7 @@
     <row r="170" spans="2:16" s="44" customFormat="1">
       <c r="B170" s="53"/>
       <c r="C170" s="57" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D170" s="55"/>
       <c r="E170" s="55"/>
@@ -31520,7 +31893,7 @@
     <row r="171" spans="2:16" s="44" customFormat="1">
       <c r="B171" s="53"/>
       <c r="C171" s="57" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D171" s="55"/>
       <c r="E171" s="55"/>
@@ -31610,7 +31983,7 @@
     </row>
     <row r="177" spans="2:16" ht="18">
       <c r="B177" s="36" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="180" spans="2:16" s="44" customFormat="1">
@@ -31633,7 +32006,7 @@
     <row r="181" spans="2:16" s="44" customFormat="1">
       <c r="B181" s="53"/>
       <c r="C181" s="64" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="D181" s="55"/>
       <c r="E181" s="55"/>
@@ -31669,7 +32042,7 @@
     <row r="183" spans="2:16" s="44" customFormat="1">
       <c r="B183" s="53"/>
       <c r="C183" s="64" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D183" s="55"/>
       <c r="E183" s="55"/>
@@ -31688,7 +32061,7 @@
     <row r="184" spans="2:16" s="44" customFormat="1">
       <c r="B184" s="53"/>
       <c r="C184" s="64" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D184" s="55"/>
       <c r="E184" s="55"/>
@@ -31707,7 +32080,7 @@
     <row r="185" spans="2:16" s="44" customFormat="1">
       <c r="B185" s="53"/>
       <c r="C185" s="64" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D185" s="55"/>
       <c r="E185" s="55"/>
@@ -31726,7 +32099,7 @@
     <row r="186" spans="2:16" s="44" customFormat="1">
       <c r="B186" s="53"/>
       <c r="C186" s="64" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D186" s="55"/>
       <c r="E186" s="55"/>
@@ -31745,7 +32118,7 @@
     <row r="187" spans="2:16" s="44" customFormat="1">
       <c r="B187" s="53"/>
       <c r="C187" s="64" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D187" s="55"/>
       <c r="E187" s="55"/>
@@ -31895,7 +32268,7 @@
     <row r="195" spans="2:16" s="44" customFormat="1">
       <c r="B195" s="53"/>
       <c r="C195" s="64" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D195" s="55"/>
       <c r="E195" s="55"/>
@@ -31914,7 +32287,7 @@
     <row r="196" spans="2:16" s="44" customFormat="1">
       <c r="B196" s="53"/>
       <c r="C196" s="103" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D196" s="55"/>
       <c r="E196" s="55"/>
@@ -31950,7 +32323,7 @@
     <row r="198" spans="2:16" s="44" customFormat="1">
       <c r="B198" s="53"/>
       <c r="C198" s="103" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D198" s="55"/>
       <c r="E198" s="55"/>
@@ -31969,7 +32342,7 @@
     <row r="199" spans="2:16" s="44" customFormat="1">
       <c r="B199" s="53"/>
       <c r="C199" s="103" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D199" s="55"/>
       <c r="E199" s="55"/>
@@ -32024,7 +32397,7 @@
     <row r="202" spans="2:16" s="44" customFormat="1">
       <c r="B202" s="53"/>
       <c r="C202" s="68" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D202" s="55"/>
       <c r="E202" s="55"/>
@@ -32062,7 +32435,7 @@
     <row r="204" spans="2:16" s="44" customFormat="1">
       <c r="B204" s="53"/>
       <c r="C204" s="57" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D204" s="55"/>
       <c r="E204" s="55"/>
@@ -32098,7 +32471,7 @@
     <row r="206" spans="2:16" s="44" customFormat="1">
       <c r="B206" s="53"/>
       <c r="C206" s="57" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D206" s="55"/>
       <c r="E206" s="55"/>
@@ -32117,7 +32490,7 @@
     <row r="207" spans="2:16" s="44" customFormat="1">
       <c r="B207" s="53"/>
       <c r="C207" s="67" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D207" s="55"/>
       <c r="E207" s="55"/>
@@ -32136,7 +32509,7 @@
     <row r="208" spans="2:16" s="44" customFormat="1">
       <c r="B208" s="53"/>
       <c r="C208" s="57" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D208" s="55"/>
       <c r="E208" s="55"/>
@@ -32172,7 +32545,7 @@
     <row r="210" spans="2:16" s="44" customFormat="1">
       <c r="B210" s="53"/>
       <c r="C210" s="57" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D210" s="55"/>
       <c r="E210" s="55"/>
@@ -32191,7 +32564,7 @@
     <row r="211" spans="2:16" s="44" customFormat="1">
       <c r="B211" s="53"/>
       <c r="C211" s="67" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D211" s="55"/>
       <c r="E211" s="55"/>
@@ -32227,7 +32600,7 @@
     <row r="213" spans="2:16" s="44" customFormat="1">
       <c r="B213" s="53"/>
       <c r="C213" s="57" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D213" s="55"/>
       <c r="E213" s="55"/>
@@ -32246,7 +32619,7 @@
     <row r="214" spans="2:16" s="44" customFormat="1">
       <c r="B214" s="53"/>
       <c r="C214" s="67" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D214" s="55"/>
       <c r="E214" s="55"/>
@@ -32301,7 +32674,7 @@
     <row r="217" spans="2:16" s="44" customFormat="1">
       <c r="B217" s="53"/>
       <c r="C217" s="57" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D217" s="55"/>
       <c r="E217" s="55"/>
@@ -32320,7 +32693,7 @@
     <row r="218" spans="2:16" s="44" customFormat="1">
       <c r="B218" s="53"/>
       <c r="C218" s="67" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D218" s="55"/>
       <c r="E218" s="55"/>
@@ -32339,7 +32712,7 @@
     <row r="219" spans="2:16" s="44" customFormat="1">
       <c r="B219" s="53"/>
       <c r="C219" s="57" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D219" s="55"/>
       <c r="E219" s="55"/>
@@ -32358,7 +32731,7 @@
     <row r="220" spans="2:16" s="44" customFormat="1">
       <c r="B220" s="53"/>
       <c r="C220" s="57" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D220" s="55"/>
       <c r="E220" s="55"/>
@@ -32377,7 +32750,7 @@
     <row r="221" spans="2:16" s="44" customFormat="1">
       <c r="B221" s="53"/>
       <c r="C221" s="57" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D221" s="55"/>
       <c r="E221" s="55"/>
@@ -32432,7 +32805,7 @@
     <row r="224" spans="2:16" s="44" customFormat="1">
       <c r="B224" s="53"/>
       <c r="C224" s="57" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D224" s="55"/>
       <c r="E224" s="55"/>
@@ -32470,7 +32843,7 @@
     <row r="226" spans="2:16" s="44" customFormat="1">
       <c r="B226" s="53"/>
       <c r="C226" s="68" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D226" s="55"/>
       <c r="E226" s="55"/>
@@ -32489,7 +32862,7 @@
     <row r="227" spans="2:16" s="44" customFormat="1">
       <c r="B227" s="53"/>
       <c r="C227" s="57" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="D227" s="55"/>
       <c r="E227" s="55"/>
@@ -32563,7 +32936,7 @@
     <row r="231" spans="2:16" s="44" customFormat="1">
       <c r="B231" s="53"/>
       <c r="C231" s="57" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D231" s="55"/>
       <c r="E231" s="55"/>
@@ -32582,7 +32955,7 @@
     <row r="232" spans="2:16" s="44" customFormat="1">
       <c r="B232" s="53"/>
       <c r="C232" s="67" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D232" s="55"/>
       <c r="E232" s="55"/>
@@ -32601,7 +32974,7 @@
     <row r="233" spans="2:16" s="44" customFormat="1">
       <c r="B233" s="53"/>
       <c r="C233" s="57" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D233" s="55"/>
       <c r="E233" s="55"/>
@@ -32620,7 +32993,7 @@
     <row r="234" spans="2:16" s="44" customFormat="1">
       <c r="B234" s="53"/>
       <c r="C234" s="57" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D234" s="55"/>
       <c r="E234" s="55"/>
@@ -32675,7 +33048,7 @@
     <row r="237" spans="2:16" s="44" customFormat="1">
       <c r="B237" s="53"/>
       <c r="C237" s="57" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D237" s="55"/>
       <c r="E237" s="55"/>
@@ -32694,7 +33067,7 @@
     <row r="238" spans="2:16" s="44" customFormat="1">
       <c r="B238" s="53"/>
       <c r="C238" s="67" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D238" s="55"/>
       <c r="E238" s="55"/>
@@ -32713,7 +33086,7 @@
     <row r="239" spans="2:16" s="44" customFormat="1">
       <c r="B239" s="53"/>
       <c r="C239" s="67" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D239" s="55"/>
       <c r="E239" s="55"/>
@@ -32751,7 +33124,7 @@
     <row r="241" spans="2:16" s="44" customFormat="1">
       <c r="B241" s="53"/>
       <c r="C241" s="67" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D241" s="55"/>
       <c r="E241" s="55"/>
@@ -32770,7 +33143,7 @@
     <row r="242" spans="2:16" s="44" customFormat="1">
       <c r="B242" s="53"/>
       <c r="C242" s="57" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D242" s="55"/>
       <c r="E242" s="55"/>
@@ -32789,7 +33162,7 @@
     <row r="243" spans="2:16" s="44" customFormat="1">
       <c r="B243" s="53"/>
       <c r="C243" s="57" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D243" s="55"/>
       <c r="E243" s="55"/>
@@ -32808,7 +33181,7 @@
     <row r="244" spans="2:16" s="44" customFormat="1">
       <c r="B244" s="53"/>
       <c r="C244" s="57" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D244" s="55"/>
       <c r="E244" s="55"/>
@@ -32827,7 +33200,7 @@
     <row r="245" spans="2:16" s="44" customFormat="1">
       <c r="B245" s="53"/>
       <c r="C245" s="57" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D245" s="55"/>
       <c r="E245" s="55"/>
@@ -32882,7 +33255,7 @@
     <row r="248" spans="2:16" s="44" customFormat="1">
       <c r="B248" s="53"/>
       <c r="C248" s="57" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D248" s="55"/>
       <c r="E248" s="55"/>
@@ -32901,7 +33274,7 @@
     <row r="249" spans="2:16" s="44" customFormat="1">
       <c r="B249" s="53"/>
       <c r="C249" s="67" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D249" s="55"/>
       <c r="E249" s="55"/>
@@ -32939,7 +33312,7 @@
     <row r="251" spans="2:16" s="44" customFormat="1">
       <c r="B251" s="53"/>
       <c r="C251" s="67" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D251" s="55"/>
       <c r="E251" s="55"/>
@@ -32994,7 +33367,7 @@
     <row r="254" spans="2:16" s="44" customFormat="1">
       <c r="B254" s="53"/>
       <c r="C254" s="68" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D254" s="55"/>
       <c r="E254" s="55"/>
@@ -33013,7 +33386,7 @@
     <row r="255" spans="2:16" s="44" customFormat="1">
       <c r="B255" s="53"/>
       <c r="C255" s="57" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D255" s="55"/>
       <c r="E255" s="55"/>
@@ -33032,7 +33405,7 @@
     <row r="256" spans="2:16" s="44" customFormat="1">
       <c r="B256" s="53"/>
       <c r="C256" s="57" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D256" s="55"/>
       <c r="E256" s="55"/>
@@ -33051,7 +33424,7 @@
     <row r="257" spans="2:16" s="44" customFormat="1">
       <c r="B257" s="53"/>
       <c r="C257" s="57" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D257" s="55"/>
       <c r="E257" s="55"/>
@@ -33070,7 +33443,7 @@
     <row r="258" spans="2:16" s="44" customFormat="1">
       <c r="B258" s="53"/>
       <c r="C258" s="57" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D258" s="55"/>
       <c r="E258" s="55"/>
@@ -33089,7 +33462,7 @@
     <row r="259" spans="2:16" s="44" customFormat="1">
       <c r="B259" s="53"/>
       <c r="C259" s="57" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D259" s="55"/>
       <c r="E259" s="55"/>
@@ -33108,7 +33481,7 @@
     <row r="260" spans="2:16" s="44" customFormat="1">
       <c r="B260" s="53"/>
       <c r="C260" s="67" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D260" s="55"/>
       <c r="E260" s="55"/>
@@ -33127,7 +33500,7 @@
     <row r="261" spans="2:16" s="44" customFormat="1">
       <c r="B261" s="53"/>
       <c r="C261" s="57" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D261" s="55"/>
       <c r="E261" s="55"/>
@@ -33272,7 +33645,7 @@
     </row>
     <row r="271" spans="2:16" ht="18">
       <c r="B271" s="36" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="273" spans="2:16" s="44" customFormat="1">
@@ -33295,7 +33668,7 @@
     <row r="274" spans="2:16" s="44" customFormat="1">
       <c r="B274" s="53"/>
       <c r="C274" s="64" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="D274" s="55"/>
       <c r="E274" s="55"/>
@@ -33350,7 +33723,7 @@
     <row r="277" spans="2:16" s="44" customFormat="1">
       <c r="B277" s="53"/>
       <c r="C277" s="64" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D277" s="55"/>
       <c r="E277" s="55"/>
@@ -33464,7 +33837,7 @@
     <row r="283" spans="2:16" s="44" customFormat="1">
       <c r="B283" s="53"/>
       <c r="C283" s="64" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D283" s="55"/>
       <c r="E283" s="55"/>
@@ -33519,7 +33892,7 @@
     <row r="286" spans="2:16" s="44" customFormat="1">
       <c r="B286" s="53"/>
       <c r="C286" s="67" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D286" s="55"/>
       <c r="E286" s="55"/>
@@ -33557,7 +33930,7 @@
     <row r="288" spans="2:16" s="44" customFormat="1">
       <c r="B288" s="53"/>
       <c r="C288" s="60" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D288" s="55"/>
       <c r="E288" s="55"/>
@@ -33593,7 +33966,7 @@
     <row r="290" spans="2:16" s="44" customFormat="1">
       <c r="B290" s="53"/>
       <c r="C290" s="57" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D290" s="55"/>
       <c r="E290" s="55"/>
@@ -33629,7 +34002,7 @@
     <row r="292" spans="2:16" s="44" customFormat="1">
       <c r="B292" s="53"/>
       <c r="C292" s="57" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D292" s="55"/>
       <c r="E292" s="55"/>
@@ -33648,7 +34021,7 @@
     <row r="293" spans="2:16" s="44" customFormat="1">
       <c r="B293" s="53"/>
       <c r="C293" s="67" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D293" s="55"/>
       <c r="E293" s="55"/>
@@ -33686,7 +34059,7 @@
     <row r="295" spans="2:16" s="44" customFormat="1">
       <c r="B295" s="53"/>
       <c r="C295" s="67" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D295" s="55"/>
       <c r="E295" s="55"/>
@@ -33779,7 +34152,7 @@
     <row r="300" spans="2:16" s="44" customFormat="1">
       <c r="B300" s="53"/>
       <c r="C300" s="57" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D300" s="55"/>
       <c r="E300" s="55"/>
@@ -33815,7 +34188,7 @@
     <row r="302" spans="2:16" s="44" customFormat="1">
       <c r="B302" s="53"/>
       <c r="C302" s="57" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D302" s="55"/>
       <c r="E302" s="55"/>
@@ -33834,7 +34207,7 @@
     <row r="303" spans="2:16" s="44" customFormat="1">
       <c r="B303" s="53"/>
       <c r="C303" s="57" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D303" s="55"/>
       <c r="E303" s="55"/>
@@ -33870,7 +34243,7 @@
     <row r="305" spans="2:16" s="44" customFormat="1">
       <c r="B305" s="53"/>
       <c r="C305" s="57" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D305" s="55"/>
       <c r="E305" s="55"/>
@@ -33889,7 +34262,7 @@
     <row r="306" spans="2:16" s="44" customFormat="1">
       <c r="B306" s="53"/>
       <c r="C306" s="57" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D306" s="55"/>
       <c r="E306" s="55"/>
@@ -33944,7 +34317,7 @@
     <row r="309" spans="2:16" s="44" customFormat="1">
       <c r="B309" s="53"/>
       <c r="C309" s="57" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D309" s="55"/>
       <c r="E309" s="55"/>
@@ -33999,7 +34372,7 @@
     <row r="312" spans="2:16" s="44" customFormat="1">
       <c r="B312" s="53"/>
       <c r="C312" s="68" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D312" s="55"/>
       <c r="E312" s="55"/>
@@ -34018,7 +34391,7 @@
     <row r="313" spans="2:16" s="44" customFormat="1">
       <c r="B313" s="53"/>
       <c r="C313" s="57" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="D313" s="55"/>
       <c r="E313" s="55"/>
@@ -34037,7 +34410,7 @@
     <row r="314" spans="2:16" s="44" customFormat="1">
       <c r="B314" s="53"/>
       <c r="C314" s="57" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D314" s="55"/>
       <c r="E314" s="55"/>
@@ -34056,7 +34429,7 @@
     <row r="315" spans="2:16" s="44" customFormat="1">
       <c r="B315" s="53"/>
       <c r="C315" s="57" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D315" s="55"/>
       <c r="E315" s="55"/>
@@ -34113,7 +34486,7 @@
     <row r="318" spans="2:16" s="44" customFormat="1">
       <c r="B318" s="53"/>
       <c r="C318" s="57" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="D318" s="55"/>
       <c r="E318" s="55"/>
@@ -34132,7 +34505,7 @@
     <row r="319" spans="2:16" s="44" customFormat="1">
       <c r="B319" s="53"/>
       <c r="C319" s="57" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D319" s="55"/>
       <c r="E319" s="55"/>
@@ -34320,7 +34693,7 @@
     <row r="329" spans="2:16" s="44" customFormat="1">
       <c r="B329" s="53"/>
       <c r="C329" s="57" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D329" s="55"/>
       <c r="E329" s="55"/>
@@ -34339,7 +34712,7 @@
     <row r="330" spans="2:16" s="44" customFormat="1">
       <c r="B330" s="53"/>
       <c r="C330" s="67" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D330" s="55"/>
       <c r="E330" s="55"/>
@@ -34358,7 +34731,7 @@
     <row r="331" spans="2:16" s="44" customFormat="1">
       <c r="B331" s="53"/>
       <c r="C331" s="57" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D331" s="55"/>
       <c r="E331" s="55"/>
@@ -34377,7 +34750,7 @@
     <row r="332" spans="2:16" s="44" customFormat="1">
       <c r="B332" s="53"/>
       <c r="C332" s="57" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D332" s="55"/>
       <c r="E332" s="55"/>
@@ -34396,7 +34769,7 @@
     <row r="333" spans="2:16" s="44" customFormat="1">
       <c r="B333" s="53"/>
       <c r="C333" s="57" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D333" s="55"/>
       <c r="E333" s="55"/>
@@ -34451,7 +34824,7 @@
     <row r="336" spans="2:16" s="44" customFormat="1">
       <c r="B336" s="53"/>
       <c r="C336" s="57" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D336" s="55"/>
       <c r="E336" s="55"/>
@@ -34470,7 +34843,7 @@
     <row r="337" spans="2:16" s="44" customFormat="1">
       <c r="B337" s="53"/>
       <c r="C337" s="67" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D337" s="55"/>
       <c r="E337" s="55"/>
@@ -34506,7 +34879,7 @@
     <row r="339" spans="2:16" s="44" customFormat="1">
       <c r="B339" s="53"/>
       <c r="C339" s="57" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D339" s="55"/>
       <c r="E339" s="55"/>
@@ -34542,7 +34915,7 @@
     <row r="341" spans="2:16" s="44" customFormat="1">
       <c r="B341" s="53"/>
       <c r="C341" s="57" t="s">
-        <v>1055</v>
+        <v>1077</v>
       </c>
       <c r="D341" s="55"/>
       <c r="E341" s="55"/>
@@ -34561,7 +34934,7 @@
     <row r="342" spans="2:16" s="44" customFormat="1">
       <c r="B342" s="53"/>
       <c r="C342" s="67" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D342" s="55"/>
       <c r="E342" s="55"/>
@@ -34580,7 +34953,7 @@
     <row r="343" spans="2:16" s="44" customFormat="1">
       <c r="B343" s="53"/>
       <c r="C343" s="57" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D343" s="55"/>
       <c r="E343" s="55"/>
@@ -34616,7 +34989,7 @@
     <row r="345" spans="2:16" s="44" customFormat="1">
       <c r="B345" s="53"/>
       <c r="C345" s="57" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D345" s="55"/>
       <c r="E345" s="55"/>
@@ -34635,7 +35008,7 @@
     <row r="346" spans="2:16" s="44" customFormat="1">
       <c r="B346" s="53"/>
       <c r="C346" s="67" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="D346" s="55"/>
       <c r="E346" s="55"/>
@@ -34654,7 +35027,7 @@
     <row r="347" spans="2:16" s="44" customFormat="1">
       <c r="B347" s="53"/>
       <c r="C347" s="57" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D347" s="55"/>
       <c r="E347" s="55"/>
@@ -34673,7 +35046,7 @@
     <row r="348" spans="2:16" s="44" customFormat="1">
       <c r="B348" s="53"/>
       <c r="C348" s="57" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D348" s="55"/>
       <c r="E348" s="55"/>
@@ -34709,7 +35082,7 @@
     <row r="350" spans="2:16" s="44" customFormat="1">
       <c r="B350" s="53"/>
       <c r="C350" s="57" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="D350" s="55"/>
       <c r="E350" s="55"/>
@@ -34745,7 +35118,7 @@
     <row r="352" spans="2:16" s="44" customFormat="1">
       <c r="B352" s="53"/>
       <c r="C352" s="57" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D352" s="55"/>
       <c r="E352" s="55"/>
@@ -34764,7 +35137,7 @@
     <row r="353" spans="2:16" s="44" customFormat="1">
       <c r="B353" s="53"/>
       <c r="C353" s="57" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="D353" s="55"/>
       <c r="E353" s="55"/>
@@ -38515,742 +38888,849 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E221"/>
+  <dimension ref="C2:K142"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" ht="19">
-      <c r="C13" s="43" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="D27" s="69" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="38" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="D31" s="49" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="D32" s="28" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="D36" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="D38" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="42" spans="3:4" ht="20" customHeight="1">
+    <row r="2" spans="3:11" ht="21">
+      <c r="G2" s="111" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="3:11" ht="21">
+      <c r="G3" s="110"/>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="D7" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="D11" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="D13" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="D18" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="E19" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="D21" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="E22" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="D24" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="E25" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="100" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="3"/>
+      <c r="D34" s="79" t="s">
+        <v>746</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="3"/>
+      <c r="D35" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="3"/>
+      <c r="D36" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="3"/>
+      <c r="D37" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="3"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="3"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="3"/>
+      <c r="D41" s="79" t="s">
+        <v>746</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="3"/>
       <c r="D42" s="30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="D44" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="D45" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="D46" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="D50" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="D51" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="D53" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="38" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="D57" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="D59" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="D61" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="D63" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="D65" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="38" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="D70" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="D72" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="D74" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="38" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="D79" s="28" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="D81" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="D83" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="D85" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="D86" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="D88" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="38" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="D93" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="D95" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" ht="19">
-      <c r="C98" s="43" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="D100" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="D102" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="D104" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="38" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="D108" s="25" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="D109" s="70" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="D110" s="70" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="D111" s="70" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="D112" s="34" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
-      <c r="D113" s="35" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4">
-      <c r="D115" s="34" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4">
-      <c r="D116" s="70" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="117" spans="4:4">
-      <c r="D117" s="34" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4">
-      <c r="D118" s="70" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="34" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="33" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="123" spans="4:4">
-      <c r="D123" s="30" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4">
-      <c r="D124" s="34" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="125" spans="4:4">
-      <c r="D125" s="28" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126" s="25" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" s="25" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128" s="25" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="D129" s="25" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4">
-      <c r="D130" s="70" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4">
-      <c r="D131" s="34" t="s">
-        <v>543</v>
+        <v>749</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="3"/>
+      <c r="D43" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="3"/>
+      <c r="D44" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="3"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="3"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="3"/>
+      <c r="D48" s="79" t="s">
+        <v>746</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="3"/>
+      <c r="D49" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="3"/>
+      <c r="D50" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="3"/>
+      <c r="D51" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="3"/>
+      <c r="D52" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="3"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="3"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="3"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="3"/>
+      <c r="D57" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="3"/>
+      <c r="D59" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="3"/>
+      <c r="D60" s="70" t="s">
+        <v>795</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="3"/>
+      <c r="D61" s="34" t="s">
+        <v>796</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="3"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="3"/>
+      <c r="D63" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="3"/>
+      <c r="D64" s="70" t="s">
+        <v>789</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="3"/>
+      <c r="D65" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="3"/>
+      <c r="D66" s="70" t="s">
+        <v>797</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="3"/>
+      <c r="D67" s="34" t="s">
+        <v>798</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="3"/>
+      <c r="D68" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="3"/>
+      <c r="D69" s="34" t="s">
+        <v>800</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="3"/>
+      <c r="D70" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" s="3"/>
+      <c r="D71" s="70" t="s">
+        <v>802</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="C72" s="3"/>
+      <c r="D72" s="34" t="s">
+        <v>803</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73" s="3"/>
+      <c r="D73" s="34" t="s">
+        <v>790</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74" s="3"/>
+      <c r="D74" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75" s="3"/>
+      <c r="D75" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" s="3"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77" s="3"/>
+      <c r="D77" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" s="3"/>
+      <c r="D78" s="70" t="s">
+        <v>805</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" s="3"/>
+      <c r="D79" s="34" t="s">
+        <v>806</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="3"/>
+      <c r="D80" s="70" t="s">
+        <v>807</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="3"/>
+      <c r="D81" s="34" t="s">
+        <v>808</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" s="3"/>
+      <c r="D82" s="34" t="s">
+        <v>809</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" s="3"/>
+      <c r="D83" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="C84" s="3"/>
+      <c r="D84" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85" s="3"/>
+      <c r="D85" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="C86" s="3"/>
+      <c r="D86" s="98"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="3"/>
+      <c r="D87" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" s="3"/>
+      <c r="D88" s="70" t="s">
+        <v>813</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="C89" s="3"/>
+      <c r="D89" s="34" t="s">
+        <v>814</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="C90" s="3"/>
+      <c r="D90" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" s="3"/>
+      <c r="D91" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="3"/>
+      <c r="D92" s="34" t="s">
+        <v>817</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="3"/>
+      <c r="D93" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="3"/>
+      <c r="D94" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95" s="3"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="3:7">
+      <c r="C96" s="3"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="C97" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D97" s="34"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="3:8">
+      <c r="C98" s="3"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="3:8">
+      <c r="C99" s="3"/>
+      <c r="D99" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="3:8">
+      <c r="C100" s="3"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="3:8">
+      <c r="C101" s="3"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="3:8">
+      <c r="C102" s="3"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="3:8">
+      <c r="C103" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D103" s="34"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="105" spans="3:8">
+      <c r="C105" s="100" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8">
+      <c r="D107" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8">
+      <c r="C109" s="3"/>
+      <c r="D109" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="3:8">
+      <c r="C110" s="3"/>
+      <c r="D110" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="3:8">
+      <c r="C111" s="3"/>
+      <c r="D111" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="3:8">
+      <c r="C112" s="3"/>
+      <c r="D112" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="C113" s="3"/>
+      <c r="D113" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="3:7">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="C115" s="100" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7">
+      <c r="C117" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7">
+      <c r="D119" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7">
+      <c r="D121" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7">
+      <c r="D122" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7">
+      <c r="D123" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7">
+      <c r="D125" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="C128" s="1" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="132" spans="3:4">
-      <c r="D132" s="34" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4">
-      <c r="D133" s="34" t="s">
-        <v>545</v>
+      <c r="C132" s="100" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="134" spans="3:4">
-      <c r="D134" s="34" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="135" spans="3:4">
-      <c r="D135" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="3" t="s">
-        <v>556</v>
+      <c r="C134" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="D136" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="D137" s="1" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="140" spans="3:4">
-      <c r="D140" s="25" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4">
-      <c r="D141" s="25" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="143" spans="3:4">
-      <c r="D143" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4">
-      <c r="D145" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4">
-      <c r="D147" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4">
-      <c r="C150" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4">
-      <c r="D152" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4">
-      <c r="D153" s="28"/>
-    </row>
-    <row r="154" spans="3:4">
-      <c r="D154" s="25" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4">
-      <c r="D155" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4">
-      <c r="D156" s="29"/>
-    </row>
-    <row r="157" spans="3:4">
-      <c r="D157" s="25" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4">
-      <c r="D158" s="25" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4">
-      <c r="D160" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="38" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="165" spans="3:4">
-      <c r="D165" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="167" spans="3:4">
-      <c r="D167" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="169" spans="3:4">
-      <c r="D169" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="172" spans="3:4">
-      <c r="C172" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="174" spans="3:4">
-      <c r="D174" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="176" spans="3:4">
-      <c r="D176" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5">
-      <c r="D177" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5">
-      <c r="D178" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5">
-      <c r="D180" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5">
-      <c r="D182" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5">
-      <c r="E184" s="49" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5">
-      <c r="C187" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5">
-      <c r="D189" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5">
-      <c r="D191" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5">
-      <c r="D193" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5">
-      <c r="E195" s="28" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5">
-      <c r="E196" s="25" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5">
-      <c r="E197" s="25" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5">
-      <c r="E198" s="25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5">
-      <c r="E199" s="34" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5">
-      <c r="C201" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5">
-      <c r="D203" s="28" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="D204" s="25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="D205" s="35" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="D206" s="34" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="D207" s="70" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="D208" s="34" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="209" spans="4:4">
-      <c r="D209" s="34" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" s="34" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="211" spans="4:4">
-      <c r="D211" s="34" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="212" spans="4:4">
-      <c r="D212" s="34" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="213" spans="4:4">
-      <c r="D213" s="34" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="214" spans="4:4">
-      <c r="D214" s="34" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="215" spans="4:4">
-      <c r="D215" s="34" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="216" spans="4:4">
-      <c r="D216" s="34" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="217" spans="4:4">
-      <c r="D217" s="34" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="218" spans="4:4">
-      <c r="D218" s="34" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="219" spans="4:4">
-      <c r="D219" s="34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="220" spans="4:4">
-      <c r="D220" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4">
-      <c r="D221" s="34" t="s">
-        <v>579</v>
+      <c r="C140" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="D142" s="1" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D27" location="AsyncTask代码示例!A1" tooltip="点击查看AsyncTask代码示例" display="AsyncTask代码示例"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="680" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="8440" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="目录" sheetId="7" r:id="rId1"/>
-    <sheet name="环境搭载" sheetId="3" r:id="rId2"/>
-    <sheet name="Android studio使用" sheetId="5" r:id="rId3"/>
-    <sheet name="Gradle" sheetId="4" r:id="rId4"/>
-    <sheet name="模拟器Genymotion" sheetId="2" r:id="rId5"/>
-    <sheet name="Android基础" sheetId="1" r:id="rId6"/>
-    <sheet name="常见问题及解决办法" sheetId="6" r:id="rId7"/>
+    <sheet name="目录" sheetId="7" state="hidden" r:id="rId1"/>
+    <sheet name="环境搭载" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Android studio使用" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Gradle" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="模拟器Genymotion" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Android基础" sheetId="1" state="hidden" r:id="rId6"/>
+    <sheet name="常见问题及解决办法" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="Intent" sheetId="8" r:id="rId8"/>
     <sheet name="Service" sheetId="13" r:id="rId9"/>
     <sheet name="Broadcast Receiver" sheetId="14" r:id="rId10"/>
@@ -23,6 +23,7 @@
     <sheet name="AsyncTask Demo" sheetId="11" r:id="rId14"/>
     <sheet name="Handler Demo" sheetId="12" r:id="rId15"/>
     <sheet name="BroadcastReceiver_Demo" sheetId="15" r:id="rId16"/>
+    <sheet name="SQLite" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1102">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20446,6 +20447,54 @@
       </rPr>
       <t>update(Uri uri, ContentValues values, String selection, String[] selectionArgs)</t>
     </r>
+  </si>
+  <si>
+    <t>表的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -20881,7 +20930,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="162">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -20917,6 +20966,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -21281,7 +21333,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="162">
+  <cellStyles count="165">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -21443,6 +21495,9 @@
     <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -23682,7 +23737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -35226,6 +35281,89 @@
       <c r="P357" s="63"/>
     </row>
     <row r="358" spans="2:16" s="44" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4">
+      <c r="B5" s="44" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="44" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" s="44" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="44" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="44" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" s="44" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="44" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" s="44" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" s="44" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" s="44" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="D15" s="44" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="D16" s="44" t="s">
+        <v>1099</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35430,9 +35568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>

--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="8440" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" state="hidden" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Gradle" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="模拟器Genymotion" sheetId="2" state="hidden" r:id="rId5"/>
     <sheet name="Android基础" sheetId="1" state="hidden" r:id="rId6"/>
-    <sheet name="常见问题及解决办法" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="常见问题及解决办法" sheetId="6" r:id="rId7"/>
     <sheet name="Intent" sheetId="8" r:id="rId8"/>
     <sheet name="Service" sheetId="13" r:id="rId9"/>
     <sheet name="Broadcast Receiver" sheetId="14" r:id="rId10"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1103">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20494,6 +20494,10 @@
   </si>
   <si>
     <t>打开数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Gradle中文乱码问题:Gradle2.0+环境下用JavaCompile,以前版本用 Compile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20930,7 +20934,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -20966,6 +20970,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -21333,7 +21339,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="167">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -21498,6 +21504,8 @@
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22362,13 +22370,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -35297,7 +35305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -36994,9 +37002,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -37879,26 +37887,31 @@
     </row>
     <row r="92" spans="3:4">
       <c r="D92" s="81" t="s">
-        <v>165</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="93" spans="3:4">
       <c r="D93" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="D94" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="D95" s="81" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="D96" s="81" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" s="81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="81" t="s">
         <v>169</v>
       </c>
     </row>

--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="8440" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" state="hidden" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="AsyncTask Demo" sheetId="11" r:id="rId14"/>
     <sheet name="Handler Demo" sheetId="12" r:id="rId15"/>
     <sheet name="BroadcastReceiver_Demo" sheetId="15" r:id="rId16"/>
-    <sheet name="SQLite" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1091">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20447,54 +20446,6 @@
       </rPr>
       <t>update(Uri uri, ContentValues values, String selection, String[] selectionArgs)</t>
     </r>
-  </si>
-  <si>
-    <t>表的操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入行数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除行数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新行数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>// Gradle中文乱码问题:Gradle2.0+环境下用JavaCompile,以前版本用 Compile</t>
@@ -22451,13 +22402,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -22890,9 +22841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K138"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -23745,9 +23694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -24740,9 +24687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M223"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -29096,9 +29041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P358"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="Q336" sqref="Q336"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -35289,89 +35232,6 @@
       <c r="P357" s="63"/>
     </row>
     <row r="358" spans="2:16" s="44" customFormat="1"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="44"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:4">
-      <c r="B5" s="44" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="C6" s="44" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="C7" s="44" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="C8" s="44" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="44" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="C10" s="44" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="44" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="C12" s="44" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13" s="44" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="44" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="44" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="D16" s="44" t="s">
-        <v>1099</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -37004,7 +36864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -37887,7 +37747,7 @@
     </row>
     <row r="92" spans="3:4">
       <c r="D92" s="81" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="93" spans="3:4">
@@ -37933,11 +37793,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L264"/>
+  <dimension ref="B2:L258"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -37950,583 +37810,622 @@
         <v>275</v>
       </c>
     </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>277</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="3" t="s">
-        <v>774</v>
+      <c r="B7" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="3" t="s">
-        <v>303</v>
+      <c r="C10" s="37" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="3" t="s">
-        <v>276</v>
+      <c r="C12" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="C14" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="C16" s="37" t="s">
-        <v>773</v>
+      <c r="C16" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="3" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="3" t="s">
-        <v>212</v>
+      <c r="D20" s="28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="25" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="3" t="s">
-        <v>213</v>
+      <c r="D22" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="D23" s="25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="D26" s="28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="D27" s="25" t="s">
-        <v>204</v>
+      <c r="C26" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="D28" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="D29" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="D32" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="D33" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="D34" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="D40" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="D45" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="D46" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="E48" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="E49" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="E50" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="E51" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="E52" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="E53" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="D34" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="D35" s="25" t="s">
+    <row r="55" spans="3:5">
+      <c r="C55" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="D57" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="D59" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="E61" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="E62" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="D36" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="D38" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="D39" s="25" t="s">
+    <row r="63" spans="3:5">
+      <c r="E63" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="E65" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="E66" s="25" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="D40" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="D46" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="D47" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="D51" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="D52" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5">
-      <c r="E54" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="E55" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5">
-      <c r="E56" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5">
-      <c r="E57" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5">
-      <c r="E58" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5">
-      <c r="E59" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5">
-      <c r="C61" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5">
-      <c r="D63" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="D65" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="67" spans="3:5">
       <c r="E67" s="25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="E68" s="25" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="3:5">
-      <c r="E69" s="25" t="s">
-        <v>254</v>
+      <c r="D69" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="3:5">
-      <c r="E70" s="29"/>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="E71" s="25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="E72" s="25" t="s">
-        <v>210</v>
+      <c r="D70" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="3:5">
-      <c r="E73" s="25" t="s">
-        <v>211</v>
+      <c r="C73" s="38" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="3:5">
-      <c r="D75" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="D76" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="C79" s="38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="3:4">
+    <row r="77" spans="3:5">
+      <c r="D77" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="D78" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="D80" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
       <c r="D83" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="D84" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
       <c r="D86" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="D88" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="D89" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="D91" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="D92" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="136" spans="4:5">
-      <c r="D136" s="3" t="s">
+    <row r="130" spans="3:5">
+      <c r="D130" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="4:5">
-      <c r="E138" s="25" t="s">
+    <row r="132" spans="3:5">
+      <c r="E132" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="4:5">
-      <c r="E139" s="30" t="s">
+    <row r="133" spans="3:5">
+      <c r="E133" s="30" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="4:5">
+    <row r="134" spans="3:5">
+      <c r="E134" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5">
+      <c r="E135" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5">
+      <c r="E136" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5">
+      <c r="E137" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5">
+      <c r="E138" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5">
+      <c r="E139" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5">
       <c r="E140" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="141" spans="4:5">
-      <c r="E141" s="31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="142" spans="4:5">
-      <c r="E142" s="31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="143" spans="4:5">
-      <c r="E143" s="31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="144" spans="4:5">
-      <c r="E144" s="31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5">
-      <c r="E145" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5">
-      <c r="E146" s="31" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
-      <c r="C149" s="3" t="s">
+    <row r="143" spans="3:5">
+      <c r="C143" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="3:5">
-      <c r="D151" s="3" t="s">
+    <row r="145" spans="3:4">
+      <c r="D145" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="3:5">
-      <c r="D153" s="3" t="s">
+    <row r="147" spans="3:4">
+      <c r="D147" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="157" spans="3:5">
-      <c r="C157" s="38" t="s">
+    <row r="151" spans="3:4">
+      <c r="C151" s="38" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="3:5">
-      <c r="C159" s="3" t="s">
+    <row r="153" spans="3:4">
+      <c r="C153" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="3:4">
-      <c r="C161" s="3" t="s">
+    <row r="155" spans="3:4">
+      <c r="C155" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="3" t="s">
+    <row r="157" spans="3:4">
+      <c r="C157" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="3:4">
-      <c r="C164" s="3" t="s">
+    <row r="158" spans="3:4">
+      <c r="C158" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="3:4">
-      <c r="D166" s="28" t="s">
+    <row r="160" spans="3:4">
+      <c r="D160" s="28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="167" spans="3:4">
-      <c r="D167" s="25" t="s">
+    <row r="161" spans="3:5">
+      <c r="D161" s="25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="3:4">
-      <c r="D168" s="25" t="s">
+    <row r="162" spans="3:5">
+      <c r="D162" s="25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="169" spans="3:4">
-      <c r="D169" s="25" t="s">
+    <row r="163" spans="3:5">
+      <c r="D163" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="3:4">
-      <c r="C171" s="3" t="s">
+    <row r="165" spans="3:5">
+      <c r="C165" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="172" spans="3:4">
+    <row r="166" spans="3:5">
+      <c r="D166" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5">
+      <c r="D169" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5">
+      <c r="D170" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5">
       <c r="D172" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="175" spans="3:4">
-      <c r="D175" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="176" spans="3:4">
-      <c r="D176" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5">
+      <c r="E174" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5">
+      <c r="E175" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5">
+      <c r="E176" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5">
+      <c r="E177" s="25" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="3:5">
-      <c r="D178" s="3" t="s">
-        <v>328</v>
+      <c r="E178" s="25" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="3:5">
-      <c r="E180" s="28" t="s">
-        <v>265</v>
+      <c r="D180" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="3:5">
-      <c r="E181" s="32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5">
-      <c r="E182" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5">
-      <c r="E183" s="25" t="s">
-        <v>253</v>
+      <c r="D181" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="184" spans="3:5">
-      <c r="E184" s="25" t="s">
-        <v>90</v>
+      <c r="C184" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="3:5">
       <c r="D186" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5">
-      <c r="D187" s="3" t="s">
-        <v>330</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5">
+      <c r="D188" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="3:5">
-      <c r="C190" s="3" t="s">
-        <v>272</v>
+      <c r="D190" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="D191" s="34" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="3:5">
-      <c r="D192" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="196" spans="4:4">
-      <c r="D196" s="33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="197" spans="4:4">
+      <c r="D192" s="25" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="193" spans="3:12">
+      <c r="D193" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="194" spans="3:12">
+      <c r="D194" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="3:12">
+      <c r="D195" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="3:12">
+      <c r="D196" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" spans="3:12">
       <c r="D197" s="34" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="198" spans="4:4">
-      <c r="D198" s="25" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="199" spans="4:4">
-      <c r="D199" s="25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="200" spans="4:4">
-      <c r="D200" s="35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="201" spans="4:4">
-      <c r="D201" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="202" spans="4:4">
-      <c r="D202" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="203" spans="4:4">
-      <c r="D203" s="34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="4:4">
-      <c r="D205" s="3" t="s">
+    <row r="199" spans="3:12">
+      <c r="D199" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="206" spans="4:4">
-      <c r="D206" s="3" t="s">
+    <row r="200" spans="3:12">
+      <c r="D200" s="3" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="207" spans="4:4">
+    <row r="201" spans="3:12">
+      <c r="D201" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="203" spans="3:12">
+      <c r="C203" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="205" spans="3:12">
+      <c r="C205" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="207" spans="3:12">
       <c r="D207" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="209" spans="3:12">
-      <c r="C209" s="38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="211" spans="3:12">
-      <c r="C211" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="213" spans="3:12">
-      <c r="D213" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="214" spans="3:12">
-      <c r="D214" s="4"/>
-      <c r="E214" s="39" t="s">
+    <row r="208" spans="3:12">
+      <c r="D208" s="4"/>
+      <c r="E208" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5"/>
-      <c r="K214" s="5"/>
-      <c r="L214" s="6"/>
-    </row>
-    <row r="215" spans="3:12">
-      <c r="D215" s="7"/>
-      <c r="E215" s="22" t="s">
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="6"/>
+    </row>
+    <row r="209" spans="4:12">
+      <c r="D209" s="7"/>
+      <c r="E209" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-      <c r="L215" s="10"/>
-    </row>
-    <row r="216" spans="3:12">
-      <c r="D216" s="7"/>
-      <c r="E216" s="12" t="s">
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+      <c r="L209" s="10"/>
+    </row>
+    <row r="210" spans="4:12">
+      <c r="D210" s="7"/>
+      <c r="E210" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
-      <c r="K216" s="9"/>
-      <c r="L216" s="10"/>
-    </row>
-    <row r="217" spans="3:12">
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+      <c r="L210" s="10"/>
+    </row>
+    <row r="211" spans="4:12">
+      <c r="D211" s="7"/>
+      <c r="E211" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="10"/>
+    </row>
+    <row r="212" spans="4:12">
+      <c r="D212" s="17"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
+      <c r="L212" s="20"/>
+    </row>
+    <row r="215" spans="4:12">
+      <c r="D215" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="216" spans="4:12">
+      <c r="D216" s="4"/>
+      <c r="E216" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="4:12">
       <c r="D217" s="7"/>
       <c r="E217" s="12" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
@@ -38536,7 +38435,7 @@
       <c r="K217" s="9"/>
       <c r="L217" s="10"/>
     </row>
-    <row r="218" spans="3:12">
+    <row r="218" spans="4:12">
       <c r="D218" s="17"/>
       <c r="E218" s="19"/>
       <c r="F218" s="19"/>
@@ -38547,51 +38446,83 @@
       <c r="K218" s="19"/>
       <c r="L218" s="20"/>
     </row>
-    <row r="221" spans="3:12">
-      <c r="D221" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="222" spans="3:12">
-      <c r="D222" s="4"/>
-      <c r="E222" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="5"/>
-      <c r="K222" s="5"/>
-      <c r="L222" s="6"/>
-    </row>
-    <row r="223" spans="3:12">
-      <c r="D223" s="7"/>
-      <c r="E223" s="12" t="s">
-        <v>299</v>
-      </c>
+    <row r="219" spans="4:12">
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
+      <c r="L219" s="9"/>
+    </row>
+    <row r="220" spans="4:12">
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="9"/>
+      <c r="L220" s="9"/>
+    </row>
+    <row r="221" spans="4:12">
+      <c r="D221" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9"/>
+      <c r="L221" s="9"/>
+    </row>
+    <row r="222" spans="4:12">
+      <c r="D222" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
+      <c r="L222" s="9"/>
+    </row>
+    <row r="223" spans="4:12">
+      <c r="D223" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E223" s="9"/>
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
-      <c r="L223" s="10"/>
-    </row>
-    <row r="224" spans="3:12">
-      <c r="D224" s="17"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="19"/>
-      <c r="K224" s="19"/>
-      <c r="L224" s="20"/>
-    </row>
-    <row r="225" spans="4:12">
+      <c r="L223" s="9"/>
+    </row>
+    <row r="224" spans="4:12">
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
+      <c r="L224" s="9"/>
+    </row>
+    <row r="225" spans="3:12">
       <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
+      <c r="E225" s="25" t="s">
+        <v>766</v>
+      </c>
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
       <c r="H225" s="9"/>
@@ -38600,9 +38531,11 @@
       <c r="K225" s="9"/>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="4:12">
+    <row r="226" spans="3:12">
       <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
+      <c r="E226" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
@@ -38611,11 +38544,11 @@
       <c r="K226" s="9"/>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="4:12">
-      <c r="D227" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="E227" s="9"/>
+    <row r="227" spans="3:12">
+      <c r="D227" s="9"/>
+      <c r="E227" s="31" t="s">
+        <v>768</v>
+      </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
       <c r="H227" s="9"/>
@@ -38624,11 +38557,11 @@
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="4:12">
-      <c r="D228" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="E228" s="9"/>
+    <row r="228" spans="3:12">
+      <c r="D228" s="9"/>
+      <c r="E228" s="34" t="s">
+        <v>207</v>
+      </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
@@ -38637,11 +38570,11 @@
       <c r="K228" s="9"/>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="4:12">
-      <c r="D229" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="E229" s="9"/>
+    <row r="229" spans="3:12">
+      <c r="D229" s="9"/>
+      <c r="E229" s="34" t="s">
+        <v>769</v>
+      </c>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
@@ -38650,9 +38583,11 @@
       <c r="K229" s="9"/>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="4:12">
+    <row r="230" spans="3:12">
       <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
+      <c r="E230" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
@@ -38661,10 +38596,10 @@
       <c r="K230" s="9"/>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="4:12">
+    <row r="231" spans="3:12">
       <c r="D231" s="9"/>
-      <c r="E231" s="25" t="s">
-        <v>766</v>
+      <c r="E231" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
@@ -38674,11 +38609,9 @@
       <c r="K231" s="9"/>
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="4:12">
+    <row r="232" spans="3:12">
       <c r="D232" s="9"/>
-      <c r="E232" s="30" t="s">
-        <v>767</v>
-      </c>
+      <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
@@ -38687,11 +38620,11 @@
       <c r="K232" s="9"/>
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="4:12">
-      <c r="D233" s="9"/>
-      <c r="E233" s="31" t="s">
-        <v>768</v>
-      </c>
+    <row r="233" spans="3:12">
+      <c r="D233" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
@@ -38700,11 +38633,11 @@
       <c r="K233" s="9"/>
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="4:12">
-      <c r="D234" s="9"/>
-      <c r="E234" s="34" t="s">
-        <v>207</v>
-      </c>
+    <row r="234" spans="3:12">
+      <c r="D234" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
@@ -38713,11 +38646,9 @@
       <c r="K234" s="9"/>
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="4:12">
+    <row r="235" spans="3:12">
       <c r="D235" s="9"/>
-      <c r="E235" s="34" t="s">
-        <v>769</v>
-      </c>
+      <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
@@ -38726,164 +38657,143 @@
       <c r="K235" s="9"/>
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="4:12">
-      <c r="D236" s="9"/>
-      <c r="E236" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
-      <c r="H236" s="9"/>
-      <c r="I236" s="9"/>
-      <c r="J236" s="9"/>
-      <c r="K236" s="9"/>
-      <c r="L236" s="9"/>
-    </row>
-    <row r="237" spans="4:12">
-      <c r="D237" s="9"/>
-      <c r="E237" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="9"/>
-      <c r="K237" s="9"/>
-      <c r="L237" s="9"/>
-    </row>
-    <row r="238" spans="4:12">
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="9"/>
-      <c r="K238" s="9"/>
-      <c r="L238" s="9"/>
-    </row>
-    <row r="239" spans="4:12">
-      <c r="D239" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="E239" s="9"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-      <c r="I239" s="9"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="9"/>
-      <c r="L239" s="9"/>
-    </row>
-    <row r="240" spans="4:12">
-      <c r="D240" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="E240" s="9"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9"/>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
-      <c r="L240" s="9"/>
-    </row>
-    <row r="241" spans="3:12">
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="9"/>
-      <c r="L241" s="9"/>
-    </row>
-    <row r="242" spans="3:12">
-      <c r="C242" s="3" t="s">
+    <row r="236" spans="3:12">
+      <c r="C236" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="244" spans="3:12">
-      <c r="D244" s="3" t="s">
+    <row r="238" spans="3:12">
+      <c r="D238" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="3:12">
-      <c r="D246" s="3" t="s">
+    <row r="240" spans="3:12">
+      <c r="D240" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="247" spans="3:12">
-      <c r="D247" s="4"/>
-      <c r="E247" s="40" t="s">
+    <row r="241" spans="4:12">
+      <c r="D241" s="4"/>
+      <c r="E241" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="5"/>
-      <c r="I247" s="5"/>
-      <c r="J247" s="5"/>
-      <c r="K247" s="5"/>
-      <c r="L247" s="6"/>
-    </row>
-    <row r="248" spans="3:12">
-      <c r="D248" s="7"/>
-      <c r="E248" s="41" t="s">
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="4:12">
+      <c r="D242" s="7"/>
+      <c r="E242" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="F248" s="9"/>
-      <c r="G248" s="9"/>
-      <c r="H248" s="9"/>
-      <c r="I248" s="9"/>
-      <c r="J248" s="9"/>
-      <c r="K248" s="9"/>
-      <c r="L248" s="10"/>
-    </row>
-    <row r="249" spans="3:12">
-      <c r="D249" s="7"/>
-      <c r="E249" s="12" t="s">
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
+      <c r="L242" s="10"/>
+    </row>
+    <row r="243" spans="4:12">
+      <c r="D243" s="7"/>
+      <c r="E243" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F249" s="9"/>
-      <c r="G249" s="9"/>
-      <c r="H249" s="9"/>
-      <c r="I249" s="9"/>
-      <c r="J249" s="9"/>
-      <c r="K249" s="9"/>
-      <c r="L249" s="10"/>
-    </row>
-    <row r="250" spans="3:12">
-      <c r="D250" s="7"/>
-      <c r="E250" s="12" t="s">
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
+      <c r="L243" s="10"/>
+    </row>
+    <row r="244" spans="4:12">
+      <c r="D244" s="7"/>
+      <c r="E244" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F250" s="9"/>
-      <c r="G250" s="9"/>
-      <c r="H250" s="9"/>
-      <c r="I250" s="9"/>
-      <c r="J250" s="9"/>
-      <c r="K250" s="9"/>
-      <c r="L250" s="10"/>
-    </row>
-    <row r="251" spans="3:12">
-      <c r="D251" s="7"/>
-      <c r="E251" s="12" t="s">
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
+      <c r="L244" s="10"/>
+    </row>
+    <row r="245" spans="4:12">
+      <c r="D245" s="7"/>
+      <c r="E245" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="F251" s="9"/>
-      <c r="G251" s="9"/>
-      <c r="H251" s="9"/>
-      <c r="I251" s="9"/>
-      <c r="J251" s="9"/>
-      <c r="K251" s="9"/>
-      <c r="L251" s="10"/>
-    </row>
-    <row r="252" spans="3:12">
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="9"/>
+      <c r="K245" s="9"/>
+      <c r="L245" s="10"/>
+    </row>
+    <row r="246" spans="4:12">
+      <c r="D246" s="7"/>
+      <c r="E246" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="9"/>
+      <c r="K246" s="9"/>
+      <c r="L246" s="10"/>
+    </row>
+    <row r="247" spans="4:12">
+      <c r="D247" s="7"/>
+      <c r="E247" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
+      <c r="I247" s="9"/>
+      <c r="J247" s="9"/>
+      <c r="K247" s="9"/>
+      <c r="L247" s="10"/>
+    </row>
+    <row r="248" spans="4:12">
+      <c r="D248" s="17"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="19"/>
+      <c r="K248" s="19"/>
+      <c r="L248" s="20"/>
+    </row>
+    <row r="250" spans="4:12">
+      <c r="D250" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="251" spans="4:12">
+      <c r="D251" s="4"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="4:12">
       <c r="D252" s="7"/>
-      <c r="E252" s="12" t="s">
-        <v>279</v>
+      <c r="E252" s="42" t="s">
+        <v>288</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
@@ -38893,10 +38803,10 @@
       <c r="K252" s="9"/>
       <c r="L252" s="10"/>
     </row>
-    <row r="253" spans="3:12">
+    <row r="253" spans="4:12">
       <c r="D253" s="7"/>
       <c r="E253" s="12" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
@@ -38906,121 +38816,68 @@
       <c r="K253" s="9"/>
       <c r="L253" s="10"/>
     </row>
-    <row r="254" spans="3:12">
-      <c r="D254" s="17"/>
-      <c r="E254" s="19"/>
-      <c r="F254" s="19"/>
-      <c r="G254" s="19"/>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="19"/>
-      <c r="K254" s="19"/>
-      <c r="L254" s="20"/>
-    </row>
-    <row r="256" spans="3:12">
-      <c r="D256" s="3" t="s">
-        <v>287</v>
-      </c>
+    <row r="254" spans="4:12">
+      <c r="D254" s="7"/>
+      <c r="E254" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="9"/>
+      <c r="L254" s="10"/>
+    </row>
+    <row r="255" spans="4:12">
+      <c r="D255" s="7"/>
+      <c r="E255" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="9"/>
+      <c r="L255" s="10"/>
+    </row>
+    <row r="256" spans="4:12">
+      <c r="D256" s="7"/>
+      <c r="E256" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="9"/>
+      <c r="K256" s="9"/>
+      <c r="L256" s="10"/>
     </row>
     <row r="257" spans="4:12">
-      <c r="D257" s="4"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="5"/>
-      <c r="I257" s="5"/>
-      <c r="J257" s="5"/>
-      <c r="K257" s="5"/>
-      <c r="L257" s="6"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="9"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="9"/>
+      <c r="K257" s="9"/>
+      <c r="L257" s="10"/>
     </row>
     <row r="258" spans="4:12">
-      <c r="D258" s="7"/>
-      <c r="E258" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="F258" s="9"/>
-      <c r="G258" s="9"/>
-      <c r="H258" s="9"/>
-      <c r="I258" s="9"/>
-      <c r="J258" s="9"/>
-      <c r="K258" s="9"/>
-      <c r="L258" s="10"/>
-    </row>
-    <row r="259" spans="4:12">
-      <c r="D259" s="7"/>
-      <c r="E259" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="F259" s="9"/>
-      <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
-      <c r="I259" s="9"/>
-      <c r="J259" s="9"/>
-      <c r="K259" s="9"/>
-      <c r="L259" s="10"/>
-    </row>
-    <row r="260" spans="4:12">
-      <c r="D260" s="7"/>
-      <c r="E260" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="F260" s="9"/>
-      <c r="G260" s="9"/>
-      <c r="H260" s="9"/>
-      <c r="I260" s="9"/>
-      <c r="J260" s="9"/>
-      <c r="K260" s="9"/>
-      <c r="L260" s="10"/>
-    </row>
-    <row r="261" spans="4:12">
-      <c r="D261" s="7"/>
-      <c r="E261" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F261" s="9"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="9"/>
-      <c r="I261" s="9"/>
-      <c r="J261" s="9"/>
-      <c r="K261" s="9"/>
-      <c r="L261" s="10"/>
-    </row>
-    <row r="262" spans="4:12">
-      <c r="D262" s="7"/>
-      <c r="E262" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F262" s="9"/>
-      <c r="G262" s="9"/>
-      <c r="H262" s="9"/>
-      <c r="I262" s="9"/>
-      <c r="J262" s="9"/>
-      <c r="K262" s="9"/>
-      <c r="L262" s="10"/>
-    </row>
-    <row r="263" spans="4:12">
-      <c r="D263" s="7"/>
-      <c r="E263" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F263" s="9"/>
-      <c r="G263" s="9"/>
-      <c r="H263" s="9"/>
-      <c r="I263" s="9"/>
-      <c r="J263" s="9"/>
-      <c r="K263" s="9"/>
-      <c r="L263" s="10"/>
-    </row>
-    <row r="264" spans="4:12">
-      <c r="D264" s="17"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="19"/>
-      <c r="G264" s="19"/>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="19"/>
-      <c r="K264" s="19"/>
-      <c r="L264" s="20"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="19"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="19"/>
+      <c r="K258" s="19"/>
+      <c r="L258" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39037,11 +38894,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K142"/>
+  <dimension ref="C2:K139"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -39840,38 +39695,38 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="3:7">
-      <c r="C128" s="1" t="s">
+    <row r="127" spans="3:7">
+      <c r="C127" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="100" t="s">
+    <row r="129" spans="3:4">
+      <c r="C129" s="100" t="s">
         <v>1062</v>
       </c>
     </row>
+    <row r="131" spans="3:4">
+      <c r="C131" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="D133" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
     <row r="134" spans="3:4">
-      <c r="C134" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="136" spans="3:4">
-      <c r="D136" s="1" t="s">
-        <v>1060</v>
+      <c r="D134" s="1" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="137" spans="3:4">
-      <c r="D137" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="140" spans="3:4">
-      <c r="C140" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="142" spans="3:4">
-      <c r="D142" s="1" t="s">
+    <row r="139" spans="3:4">
+      <c r="D139" s="1" t="s">
         <v>1065</v>
       </c>
     </row>

--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1080" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="3940" yWindow="1220" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" state="hidden" r:id="rId1"/>
@@ -37796,8 +37796,8 @@
   <dimension ref="B2:L258"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C259" sqref="C259"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>

--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="1220" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="2340" yWindow="1360" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1101">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20449,6 +20449,46 @@
   </si>
   <si>
     <t>// Gradle中文乱码问题:Gradle2.0+环境下用JavaCompile,以前版本用 Compile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error:Exception in thread "main" java.lang.UnsupportedClassVersionError: com/android/dx/command/Main : Unsupported major.minor version 52.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle编译错误:UnsupportedClassVersionError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message控制台的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradle控制台的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高版本的SDK在低版本运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将24.0.0改成低版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File-&gt;Project Structure,弹出上图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在app的Build Tools Version是24.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从Build Tools Version的下拉列表中选择低版本,如23.0.1，重新运行，OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20885,7 +20925,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -21053,8 +21093,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -21289,8 +21331,9 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -21457,6 +21500,8 @@
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22393,6 +22438,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="25336500"/>
+          <a:ext cx="11925300" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="28003500"/>
+          <a:ext cx="11925300" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="31813500"/>
+          <a:ext cx="10363200" cy="4127500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="37338000"/>
+          <a:ext cx="10388600" cy="4013200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -36862,9 +37059,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -37773,6 +37970,61 @@
     <row r="98" spans="4:4">
       <c r="D98" s="81" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" s="81" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="D132" s="112" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="D133" s="81" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="81" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164" s="81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="D165" s="81" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="D167" s="81" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4">
+      <c r="C191" s="81" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4">
+      <c r="D192" s="81" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="81" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="81" t="s">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -37795,7 +38047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1360" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="14560" yWindow="6060" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" state="hidden" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="AsyncTask Demo" sheetId="11" r:id="rId14"/>
     <sheet name="Handler Demo" sheetId="12" r:id="rId15"/>
     <sheet name="BroadcastReceiver_Demo" sheetId="15" r:id="rId16"/>
+    <sheet name="单元测试" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="Gradle_DSL_method_not_found_android">常见问题及解决办法!$C$4</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1126">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20489,6 +20490,97 @@
   </si>
   <si>
     <t>从Build Tools Version的下拉列表中选择低版本,如23.0.1，重新运行，OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio默认集成了单元测试的框架，所以新建的工程很方便的进行单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试,尤其是Model层意义重大,因为这一层通常不关系业务层面,与View层解耦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以编写这一层的代码,如果还跟开发应用那么样需要做测试界面的方式做测试的话，效率会很低。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio创建的工程有两个测试相关的文件夹,一个androidTest，另一个是Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中androidTest是需要链接设备测试的,而test则可以在不启动模拟器也不需要真机就能测试，所以这个test比较适合做单元的逻辑测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junit3.x</t>
+  </si>
+  <si>
+    <t>(1)、使用junit3.x版本进行单元测试时，测试类必须要继承于TestCase父类；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)、测试方法需要遵循的原则：</t>
+  </si>
+  <si>
+    <t>A、public的</t>
+  </si>
+  <si>
+    <t>B、void的</t>
+  </si>
+  <si>
+    <t>C、无方法参数</t>
+  </si>
+  <si>
+    <t>D、方法名称必须以test开头</t>
+  </si>
+  <si>
+    <t>(3)、不同的Test Case之间一定要保持完全的独立性，不能有任何的关联。</t>
+  </si>
+  <si>
+    <t>(4)、我们要掌握好测试方法的顺序，不能依赖于测试方法自己的执行顺序。</t>
+  </si>
+  <si>
+    <t>(1)、使用junit4.x版本进行单元测试时，不用测试类继承TestCase父类，因为，junit4.x全面引入了Annotation来执行我们编写的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junit4.x</t>
+  </si>
+  <si>
+    <t>(2)、junit4.x版本，引用了注解的方式，进行单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3)、junit4.x版本我们常用的注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A、@Before 注解：与junit3.x中的setUp()方法功能一样，在每个测试方法之前执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、@After 注解：与junit3.x中的tearDown()方法功能一样，在每个测试方法之后执行；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C、@BeforeClass 注解：在所有方法执行之前执行；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D、@AfterClass 注解：在所有方法执行之后执行；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E、@Test(timeout = xxx) 注解：设置当前测试方法在一定时间内运行完，否则返回错误；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F、@Test(expected = Exception.class) 注解：设置被测试的方法是否有异常抛出。抛出异常类型为：Exception.class；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G、@Ignore 注解：注释掉一个测试方法或一个类，被注释的方法或类，不会被执行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21328,10 +21420,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -23046,13 +23138,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="21">
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="112" t="s">
         <v>1067</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="100" t="s">
@@ -23899,13 +23991,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="21">
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="112" t="s">
         <v>1069</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="1" t="s">
@@ -35433,6 +35525,155 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -37061,7 +37302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -37978,7 +38219,7 @@
       </c>
     </row>
     <row r="132" spans="3:4">
-      <c r="D132" s="112" t="s">
+      <c r="D132" s="111" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -39156,13 +39397,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11" ht="21">
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="112" t="s">
         <v>1068</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="3:11" ht="21">
       <c r="G3" s="110"/>

--- a/Document/Android/Android开发.xlsx
+++ b/Document/Android/Android开发.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="3080" windowWidth="25600" windowHeight="16060" tabRatio="822" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="822" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="1164">
   <si>
     <t>Android Studio</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20699,6 +20699,205 @@
   </si>
   <si>
     <t xml:space="preserve">  /data/data/&lt;app package&gt;/files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Android Studio 查看SDK源代码时提示:Sources for 'Android xx Platform' not found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些源代码储存在 /Users/&lt;userName&gt;/Library/Android/sdk/sources 下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">如: Android API 19的源代码 储存在  /Users/&lt;userName&gt;/Library/Android/sdk/sources/android-19 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      Android API 23的源代码 储存在  /Users/&lt;userName&gt;/Library/Android/sdk/sources/android-23 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先要确保已经下载了相关Android API 的源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如:Android studio 2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    该配置文件包含了JDK的配置,以及不同的Android API Platform 的相关配置,比如关联的源代码,则是在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sourcePath 节点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置相应的androi studio软件版本的配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> jdk.table.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    将源代码的目录所在的路劲拷贝过来,设置sourcePath节点的值,重启Android studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/root&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/sourcePath&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>sourcePath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">root </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>type=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"composite"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">root </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>type=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">"simple" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>url=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"file://$USER_HOME$/Library/Android/sdk/sources/android-23” /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>其所在的文件的部分代码如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    该配置文件的路劲为:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Users/&lt;userName&gt;/Library/Preferences/AndroidStudio2.1/options/jdk.table.xml</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20706,7 +20905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -21031,6 +21230,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -21135,7 +21357,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="178">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -21314,8 +21536,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -21551,8 +21775,24 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="178">
+  <cellStyles count="180">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -21730,6 +21970,8 @@
     <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22818,6 +23060,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="47815500"/>
+          <a:ext cx="10248900" cy="6680200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -35744,7 +36024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -37493,11 +37773,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S235"/>
+  <dimension ref="A1:S260"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -38562,6 +38840,165 @@
       </c>
       <c r="E235" s="44"/>
       <c r="F235" s="44"/>
+    </row>
+    <row r="237" spans="3:6">
+      <c r="C237" s="44" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="238" spans="3:6">
+      <c r="C238" s="44"/>
+    </row>
+    <row r="239" spans="3:6">
+      <c r="C239" s="44" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="241" spans="3:16">
+      <c r="C241" s="81">
+        <v>1</v>
+      </c>
+      <c r="D241" s="81" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="242" spans="3:16">
+      <c r="D242" s="81" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="243" spans="3:16">
+      <c r="D243" s="81" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="244" spans="3:16">
+      <c r="D244" s="81" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="246" spans="3:16">
+      <c r="C246" s="81">
+        <v>2</v>
+      </c>
+      <c r="D246" s="81" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="247" spans="3:16">
+      <c r="D247" s="81" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="248" spans="3:16">
+      <c r="D248" s="81" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="250" spans="3:16">
+      <c r="D250" s="81" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="251" spans="3:16">
+      <c r="D251" s="81" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="252" spans="3:16" ht="17">
+      <c r="D252" s="113"/>
+      <c r="E252" s="113"/>
+      <c r="F252" s="113"/>
+    </row>
+    <row r="253" spans="3:16" ht="17">
+      <c r="D253" s="113"/>
+      <c r="E253" s="114" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F253" s="115"/>
+      <c r="G253" s="83"/>
+      <c r="H253" s="83"/>
+      <c r="I253" s="83"/>
+      <c r="J253" s="83"/>
+      <c r="K253" s="83"/>
+      <c r="L253" s="83"/>
+      <c r="M253" s="83"/>
+      <c r="N253" s="83"/>
+      <c r="O253" s="83"/>
+      <c r="P253" s="84"/>
+    </row>
+    <row r="254" spans="3:16" ht="17">
+      <c r="D254" s="113"/>
+      <c r="E254" s="116" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F254" s="117"/>
+      <c r="G254" s="87"/>
+      <c r="H254" s="87"/>
+      <c r="I254" s="87"/>
+      <c r="J254" s="87"/>
+      <c r="K254" s="87"/>
+      <c r="L254" s="87"/>
+      <c r="M254" s="87"/>
+      <c r="N254" s="87"/>
+      <c r="O254" s="87"/>
+      <c r="P254" s="88"/>
+    </row>
+    <row r="255" spans="3:16" ht="17">
+      <c r="D255" s="113"/>
+      <c r="E255" s="116" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F255" s="117"/>
+      <c r="G255" s="87"/>
+      <c r="H255" s="87"/>
+      <c r="I255" s="87"/>
+      <c r="J255" s="87"/>
+      <c r="K255" s="87"/>
+      <c r="L255" s="87"/>
+      <c r="M255" s="87"/>
+      <c r="N255" s="87"/>
+      <c r="O255" s="87"/>
+      <c r="P255" s="88"/>
+    </row>
+    <row r="256" spans="3:16" ht="17">
+      <c r="D256" s="113"/>
+      <c r="E256" s="118" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F256" s="117"/>
+      <c r="G256" s="87"/>
+      <c r="H256" s="87"/>
+      <c r="I256" s="87"/>
+      <c r="J256" s="87"/>
+      <c r="K256" s="87"/>
+      <c r="L256" s="87"/>
+      <c r="M256" s="87"/>
+      <c r="N256" s="87"/>
+      <c r="O256" s="87"/>
+      <c r="P256" s="88"/>
+    </row>
+    <row r="257" spans="4:16" ht="17">
+      <c r="D257" s="113"/>
+      <c r="E257" s="119" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F257" s="120"/>
+      <c r="G257" s="95"/>
+      <c r="H257" s="95"/>
+      <c r="I257" s="95"/>
+      <c r="J257" s="95"/>
+      <c r="K257" s="95"/>
+      <c r="L257" s="95"/>
+      <c r="M257" s="95"/>
+      <c r="N257" s="95"/>
+      <c r="O257" s="95"/>
+      <c r="P257" s="96"/>
+    </row>
+    <row r="260" spans="4:16">
+      <c r="E260" s="81" t="s">
+        <v>1162</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
